--- a/publication/analyses/outputs/outliers/gdpt_nneigh_errxy_relative_focus_invalid-only.xlsx
+++ b/publication/analyses/outputs/outliers/gdpt_nneigh_errxy_relative_focus_invalid-only.xlsx
@@ -549,25 +549,25 @@
         <v>491.699372022274</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1517290964788813</v>
+        <v>0.1517413022108158</v>
       </c>
       <c r="K2" t="n">
-        <v>-46.60887195362174</v>
+        <v>-46.60888415935367</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O2" t="n">
-        <v>1.199423424253553</v>
+        <v>1.199399125043527</v>
       </c>
       <c r="P2" t="n">
-        <v>1.199423424253553</v>
+        <v>1.199399125043527</v>
       </c>
       <c r="Q2" t="n">
         <v>64.48502680147463</v>
@@ -602,25 +602,25 @@
         <v>519.3708207195491</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1840173435032</v>
+        <v>0.1840055710659527</v>
       </c>
       <c r="K3" t="n">
-        <v>-46.80442550676851</v>
+        <v>-46.80441373433126</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N3" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O3" t="n">
-        <v>1.003869871106779</v>
+        <v>1.003869550065936</v>
       </c>
       <c r="P3" t="n">
-        <v>1.003869871106779</v>
+        <v>1.003869550065936</v>
       </c>
       <c r="Q3" t="n">
         <v>77.98095756683703</v>
@@ -655,28 +655,28 @@
         <v>491.8032902804998</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1519468659258862</v>
+        <v>0.1519590723559503</v>
       </c>
       <c r="K4" t="n">
-        <v>-46.40500809041568</v>
+        <v>-46.40502029684575</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N4" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O4" t="n">
-        <v>1.403287287459605</v>
+        <v>1.40326298755145</v>
       </c>
       <c r="P4" t="n">
-        <v>1.403287287459605</v>
+        <v>1.40326298755145</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.84599986367108</v>
+        <v>64.84599986367107</v>
       </c>
     </row>
     <row r="5">
@@ -708,25 +708,25 @@
         <v>414.5228917489858</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3577747336378252</v>
+        <v>-0.3577885063339181</v>
       </c>
       <c r="K5" t="n">
-        <v>-43.18100077656626</v>
+        <v>-43.18098700387016</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N5" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O5" t="n">
-        <v>4.627294601309032</v>
+        <v>4.627296280527034</v>
       </c>
       <c r="P5" t="n">
-        <v>4.627294601309032</v>
+        <v>4.627296280527034</v>
       </c>
       <c r="Q5" t="n">
         <v>8.215553506191412</v>
@@ -761,25 +761,25 @@
         <v>137.2147312743294</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1571327896014907</v>
+        <v>-0.1571412507316126</v>
       </c>
       <c r="K6" t="n">
-        <v>-45.97347945529647</v>
+        <v>-45.97347099416635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N6" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O6" t="n">
-        <v>1.834815922578819</v>
+        <v>1.83481229023085</v>
       </c>
       <c r="P6" t="n">
-        <v>1.834815922578819</v>
+        <v>1.83481229023085</v>
       </c>
       <c r="Q6" t="n">
         <v>14.76656346632181</v>
@@ -814,25 +814,25 @@
         <v>519.9087863088206</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1842388998528932</v>
+        <v>0.1842271178723607</v>
       </c>
       <c r="K7" t="n">
-        <v>-47.17199400189372</v>
+        <v>-47.17198221991318</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002925869579967151</v>
+        <v>0.002923743260173834</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03917356029566955</v>
+        <v>-0.03917525184998123</v>
       </c>
       <c r="N7" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6363013759815743</v>
+        <v>0.6363010644840159</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6363013759815743</v>
+        <v>0.6363010644840159</v>
       </c>
       <c r="Q7" t="n">
         <v>78.12511790614536</v>
@@ -867,25 +867,25 @@
         <v>491.9601092187807</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06388443491873375</v>
+        <v>0.06388436230177064</v>
       </c>
       <c r="K8" t="n">
-        <v>-42.27612933287792</v>
+        <v>-42.27612926026096</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N8" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8702286991117205</v>
+        <v>0.8702288432342442</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8702286991117205</v>
+        <v>0.8702288432342442</v>
       </c>
       <c r="Q8" t="n">
         <v>64.58695524870947</v>
@@ -920,25 +920,25 @@
         <v>414.6313786754268</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3319511091547582</v>
+        <v>-0.3319510269829919</v>
       </c>
       <c r="K9" t="n">
-        <v>-42.32927338064116</v>
+        <v>-42.32927346281293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N9" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8170846513484804</v>
+        <v>0.8170846406822747</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8170846513484804</v>
+        <v>0.8170846406822747</v>
       </c>
       <c r="Q9" t="n">
         <v>8.176504897357097</v>
@@ -973,25 +973,25 @@
         <v>353.1819034850664</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1771608483465883</v>
+        <v>0.1771608400649427</v>
       </c>
       <c r="K10" t="n">
-        <v>-39.08328329732618</v>
+        <v>-39.08328328904453</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N10" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O10" t="n">
-        <v>4.063074734663466</v>
+        <v>4.063074814450673</v>
       </c>
       <c r="P10" t="n">
-        <v>4.063074734663466</v>
+        <v>4.063074814450673</v>
       </c>
       <c r="Q10" t="n">
         <v>13.89472773347959</v>
@@ -1026,25 +1026,25 @@
         <v>492.0655559383053</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06414439422638196</v>
+        <v>0.06414432160146788</v>
       </c>
       <c r="K11" t="n">
-        <v>-42.19475663912434</v>
+        <v>-42.19475656649943</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N11" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9516013928652995</v>
+        <v>0.9516015369957742</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9516013928652995</v>
+        <v>0.9516015369957742</v>
       </c>
       <c r="Q11" t="n">
         <v>64.90986312907894</v>
@@ -1079,25 +1079,25 @@
         <v>414.720897416558</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.3320221469894449</v>
+        <v>-0.3320220648165133</v>
       </c>
       <c r="K12" t="n">
-        <v>-39.16593703668403</v>
+        <v>-39.16593711885696</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N12" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O12" t="n">
-        <v>3.980420995305614</v>
+        <v>3.980420984638243</v>
       </c>
       <c r="P12" t="n">
-        <v>3.980420995305614</v>
+        <v>3.980420984638243</v>
       </c>
       <c r="Q12" t="n">
         <v>8.143510196898255</v>
@@ -1132,25 +1132,25 @@
         <v>137.2236779642652</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1165794987314328</v>
+        <v>-0.1165794484141855</v>
       </c>
       <c r="K13" t="n">
-        <v>-46.2589307053502</v>
+        <v>-46.25893075566745</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N13" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.11257267336056</v>
+        <v>-3.112572652172247</v>
       </c>
       <c r="P13" t="n">
-        <v>3.11257267336056</v>
+        <v>3.112572652172247</v>
       </c>
       <c r="Q13" t="n">
         <v>14.79417749444066</v>
@@ -1185,25 +1185,25 @@
         <v>353.462421190674</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1772435640608236</v>
+        <v>0.1772435557002581</v>
       </c>
       <c r="K14" t="n">
-        <v>-47.08336601304042</v>
+        <v>-47.08336600467985</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N14" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.937007981050776</v>
+        <v>-3.93700790118465</v>
       </c>
       <c r="P14" t="n">
-        <v>3.937007981050776</v>
+        <v>3.93700790118465</v>
       </c>
       <c r="Q14" t="n">
         <v>14.16526535951992</v>
@@ -1238,25 +1238,25 @@
         <v>282.0474777604613</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1945682397785262</v>
+        <v>0.1945682749880788</v>
       </c>
       <c r="K15" t="n">
-        <v>-44.57007844386016</v>
+        <v>-44.57007847906971</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N15" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.423720411870519</v>
+        <v>-1.423720375574511</v>
       </c>
       <c r="P15" t="n">
-        <v>1.423720411870519</v>
+        <v>1.423720375574511</v>
       </c>
       <c r="Q15" t="n">
         <v>3.600775170412875</v>
@@ -1291,25 +1291,25 @@
         <v>347.8546034861743</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2501380453157225</v>
+        <v>0.2501380816965266</v>
       </c>
       <c r="K16" t="n">
-        <v>-43.54401559633613</v>
+        <v>-43.54401563271693</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N16" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3976575643464884</v>
+        <v>-0.3976575292217319</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3976575643464884</v>
+        <v>0.3976575292217319</v>
       </c>
       <c r="Q16" t="n">
         <v>9.459393539798503</v>
@@ -1344,25 +1344,25 @@
         <v>491.7480856953435</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06365964198401031</v>
+        <v>0.06365956940862816</v>
       </c>
       <c r="K17" t="n">
-        <v>-41.35753719300442</v>
+        <v>-41.35753712042904</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N17" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O17" t="n">
-        <v>1.788820838985224</v>
+        <v>1.788820983066167</v>
       </c>
       <c r="P17" t="n">
-        <v>1.788820838985224</v>
+        <v>1.788820983066167</v>
       </c>
       <c r="Q17" t="n">
         <v>64.26454844963175</v>
@@ -1397,25 +1397,25 @@
         <v>414.720588543647</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3319897376966381</v>
+        <v>-0.3319896554709914</v>
       </c>
       <c r="K18" t="n">
-        <v>-39.41086740516051</v>
+        <v>-39.41086748738616</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N18" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O18" t="n">
-        <v>3.735490626829133</v>
+        <v>3.735490616109047</v>
       </c>
       <c r="P18" t="n">
-        <v>3.735490626829133</v>
+        <v>3.735490616109047</v>
       </c>
       <c r="Q18" t="n">
         <v>8.129582823075639</v>
@@ -1450,25 +1450,25 @@
         <v>346.9828896722852</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1157536718546908</v>
+        <v>0.1157536493538487</v>
       </c>
       <c r="K19" t="n">
-        <v>-39.77697816165061</v>
+        <v>-39.77697813914977</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N19" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O19" t="n">
-        <v>3.369379870339031</v>
+        <v>3.369379964345434</v>
       </c>
       <c r="P19" t="n">
-        <v>3.369379870339031</v>
+        <v>3.369379964345434</v>
       </c>
       <c r="Q19" t="n">
         <v>3.207611980901587</v>
@@ -1503,25 +1503,25 @@
         <v>136.8252064669398</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1161979728462015</v>
+        <v>-0.1161979225954113</v>
       </c>
       <c r="K20" t="n">
-        <v>-45.87155712919462</v>
+        <v>-45.87155717944541</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N20" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.725199097204978</v>
+        <v>-2.725199075950208</v>
       </c>
       <c r="P20" t="n">
-        <v>2.725199097204978</v>
+        <v>2.725199075950208</v>
       </c>
       <c r="Q20" t="n">
         <v>14.26167088636916</v>
@@ -1556,25 +1556,25 @@
         <v>353.2738850162749</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1774754238951886</v>
+        <v>0.1774754156863239</v>
       </c>
       <c r="K21" t="n">
-        <v>-38.96114889328295</v>
+        <v>-38.96114888507409</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N21" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O21" t="n">
-        <v>4.185209138706689</v>
+        <v>4.185209218421114</v>
       </c>
       <c r="P21" t="n">
-        <v>4.185209138706689</v>
+        <v>4.185209218421114</v>
       </c>
       <c r="Q21" t="n">
         <v>13.61008879093758</v>
@@ -1609,25 +1609,25 @@
         <v>282.2397733177347</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1946657706995865</v>
+        <v>0.1946658058523099</v>
       </c>
       <c r="K22" t="n">
-        <v>-41.73344128090367</v>
+        <v>-41.73344131605639</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N22" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O22" t="n">
-        <v>1.412916751085973</v>
+        <v>1.41291678743881</v>
       </c>
       <c r="P22" t="n">
-        <v>1.412916751085973</v>
+        <v>1.41291678743881</v>
       </c>
       <c r="Q22" t="n">
         <v>3.77481776552098</v>
@@ -1662,25 +1662,25 @@
         <v>347.7830592102688</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2501643377300482</v>
+        <v>0.2501643742078414</v>
       </c>
       <c r="K23" t="n">
-        <v>-42.54404188875046</v>
+        <v>-42.54404192522825</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02975120514449314</v>
+        <v>0.02975121773014345</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03411911892645469</v>
+        <v>-0.03411910884093822</v>
       </c>
       <c r="N23" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6023161432391859</v>
+        <v>0.6023161782669533</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6023161432391859</v>
+        <v>0.6023161782669533</v>
       </c>
       <c r="Q23" t="n">
         <v>9.769738300107521</v>
@@ -1715,25 +1715,25 @@
         <v>492.4189560453001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1526765722342915</v>
+        <v>0.1526748925365595</v>
       </c>
       <c r="K24" t="n">
-        <v>-36.44655412325471</v>
+        <v>-36.44655244355697</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N24" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O24" t="n">
-        <v>1.238634315257904</v>
+        <v>1.238637650918001</v>
       </c>
       <c r="P24" t="n">
-        <v>1.238634315257904</v>
+        <v>1.238637650918001</v>
       </c>
       <c r="Q24" t="n">
         <v>64.62233772683842</v>
@@ -1768,25 +1768,25 @@
         <v>414.6521036900966</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5166884371507336</v>
+        <v>-0.5166865466029833</v>
       </c>
       <c r="K25" t="n">
-        <v>-38.43025033835947</v>
+        <v>-38.43025222890722</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N25" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.7450618998468599</v>
+        <v>-0.7450621344322457</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7450618998468599</v>
+        <v>0.7450621344322457</v>
       </c>
       <c r="Q25" t="n">
         <v>8.142715411928311</v>
@@ -1821,25 +1821,25 @@
         <v>121.9019340141352</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1518779736369282</v>
+        <v>-0.1518758235544624</v>
       </c>
       <c r="K26" t="n">
-        <v>-39.42771386309776</v>
+        <v>-39.42771601318023</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N26" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.742525424585153</v>
+        <v>-1.742525918705255</v>
       </c>
       <c r="P26" t="n">
-        <v>1.742525424585153</v>
+        <v>1.742525918705255</v>
       </c>
       <c r="Q26" t="n">
         <v>7.645873296118526</v>
@@ -1874,25 +1874,25 @@
         <v>282.1262635659829</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2247533449807833</v>
+        <v>0.2247541638707986</v>
       </c>
       <c r="K27" t="n">
-        <v>-39.76352885518487</v>
+        <v>-39.76352967407488</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N27" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.078340416672255</v>
+        <v>-2.078339579599906</v>
       </c>
       <c r="P27" t="n">
-        <v>2.078340416672255</v>
+        <v>2.078339579599906</v>
       </c>
       <c r="Q27" t="n">
         <v>3.697728322919315</v>
@@ -1927,25 +1927,25 @@
         <v>492.8220320110208</v>
       </c>
       <c r="J28" t="n">
-        <v>0.15306822094513</v>
+        <v>0.1530665390320465</v>
       </c>
       <c r="K28" t="n">
-        <v>-36.52857842502677</v>
+        <v>-36.52857674311368</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N28" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O28" t="n">
-        <v>1.156610013485846</v>
+        <v>1.156613351361294</v>
       </c>
       <c r="P28" t="n">
-        <v>1.156610013485846</v>
+        <v>1.156613351361294</v>
       </c>
       <c r="Q28" t="n">
         <v>65.01843776593944</v>
@@ -1980,25 +1980,25 @@
         <v>414.7800985705377</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.5168210902724653</v>
+        <v>-0.5168192002912946</v>
       </c>
       <c r="K29" t="n">
-        <v>-38.14440339952345</v>
+        <v>-38.14440528950463</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N29" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.4592149610108436</v>
+        <v>-0.4592151950296497</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4592149610108436</v>
+        <v>0.4592151950296497</v>
       </c>
       <c r="Q29" t="n">
         <v>8.004597832546528</v>
@@ -2033,25 +2033,25 @@
         <v>121.5478144023523</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1515062993676182</v>
+        <v>-0.1515041509065966</v>
       </c>
       <c r="K30" t="n">
-        <v>-39.34645288430585</v>
+        <v>-39.34645503276688</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N30" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.661264445793243</v>
+        <v>-1.6612649382919</v>
       </c>
       <c r="P30" t="n">
-        <v>1.661264445793243</v>
+        <v>1.6612649382919</v>
       </c>
       <c r="Q30" t="n">
         <v>7.282125705810897</v>
@@ -2086,25 +2086,25 @@
         <v>282.075552914966</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2246951382627955</v>
+        <v>0.2246959570707503</v>
       </c>
       <c r="K31" t="n">
-        <v>-39.72265432193627</v>
+        <v>-39.72265514074422</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N31" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O31" t="n">
-        <v>-2.037465883423657</v>
+        <v>-2.037465046269247</v>
       </c>
       <c r="P31" t="n">
-        <v>2.037465883423657</v>
+        <v>2.037465046269247</v>
       </c>
       <c r="Q31" t="n">
         <v>3.642530589404689</v>
@@ -2139,25 +2139,25 @@
         <v>348.287281945507</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2976073799317405</v>
+        <v>0.2976082259181894</v>
       </c>
       <c r="K32" t="n">
-        <v>-41.71393391054399</v>
+        <v>-41.71393475653043</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N32" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O32" t="n">
-        <v>-4.028745472031375</v>
+        <v>-4.028744662055459</v>
       </c>
       <c r="P32" t="n">
-        <v>4.028745472031375</v>
+        <v>4.028744662055459</v>
       </c>
       <c r="Q32" t="n">
         <v>9.576904387745506</v>
@@ -2192,25 +2192,25 @@
         <v>492.4998602135286</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1528405152336489</v>
+        <v>0.1528388352283372</v>
       </c>
       <c r="K33" t="n">
-        <v>-36.48753439278467</v>
+        <v>-36.48753271277936</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N33" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O33" t="n">
-        <v>1.197654045727944</v>
+        <v>1.19765738169562</v>
       </c>
       <c r="P33" t="n">
-        <v>1.197654045727944</v>
+        <v>1.19765738169562</v>
       </c>
       <c r="Q33" t="n">
         <v>64.7766468620475</v>
@@ -2245,25 +2245,25 @@
         <v>414.7101038235268</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.5167496084634067</v>
+        <v>-0.516747717986064</v>
       </c>
       <c r="K34" t="n">
-        <v>-38.47100549357742</v>
+        <v>-38.47100738405476</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N34" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.785817055064804</v>
+        <v>-0.7858172895797821</v>
       </c>
       <c r="P34" t="n">
-        <v>0.785817055064804</v>
+        <v>0.7858172895797821</v>
       </c>
       <c r="Q34" t="n">
         <v>8.108186965681963</v>
@@ -2298,25 +2298,25 @@
         <v>121.45488369655</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1513217346522069</v>
+        <v>-0.151319586338964</v>
       </c>
       <c r="K35" t="n">
-        <v>-39.34663744902127</v>
+        <v>-39.34663959733451</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N35" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.661449010508655</v>
+        <v>-1.661449502859533</v>
       </c>
       <c r="P35" t="n">
-        <v>1.661449010508655</v>
+        <v>1.661449502859533</v>
       </c>
       <c r="Q35" t="n">
         <v>7.111164073073548</v>
@@ -2351,25 +2351,25 @@
         <v>281.8542137438631</v>
       </c>
       <c r="J36" t="n">
-        <v>0.224459001803595</v>
+        <v>0.2244598210150315</v>
       </c>
       <c r="K36" t="n">
-        <v>-42.64078553241584</v>
+        <v>-42.64078635162728</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N36" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O36" t="n">
-        <v>-4.955597093903229</v>
+        <v>-4.955596257152301</v>
       </c>
       <c r="P36" t="n">
-        <v>4.955597093903229</v>
+        <v>4.955596257152301</v>
       </c>
       <c r="Q36" t="n">
         <v>3.422164509879688</v>
@@ -2404,25 +2404,25 @@
         <v>348.1532651399654</v>
       </c>
       <c r="J37" t="n">
-        <v>0.297484708477846</v>
+        <v>0.2974855568225721</v>
       </c>
       <c r="K37" t="n">
-        <v>-41.91789287174316</v>
+        <v>-41.91789372008788</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02759764808920894</v>
+        <v>0.02759793962695093</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.05464248348030294</v>
+        <v>-0.05464225125948969</v>
       </c>
       <c r="N37" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="O37" t="n">
-        <v>-4.232704433230545</v>
+        <v>-4.232703625612906</v>
       </c>
       <c r="P37" t="n">
-        <v>4.232704433230545</v>
+        <v>4.232703625612906</v>
       </c>
       <c r="Q37" t="n">
         <v>9.865226728056387</v>
@@ -2457,25 +2457,25 @@
         <v>492.740166926348</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1408665573099341</v>
+        <v>0.1408665602113004</v>
       </c>
       <c r="K38" t="n">
-        <v>-31.76127472057524</v>
+        <v>-31.76127472347661</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N38" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O38" t="n">
-        <v>1.222605614643918</v>
+        <v>1.22260560889351</v>
       </c>
       <c r="P38" t="n">
-        <v>1.222605614643918</v>
+        <v>1.22260560889351</v>
       </c>
       <c r="Q38" t="n">
         <v>65.00045762115185</v>
@@ -2510,25 +2510,25 @@
         <v>414.7420998925275</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.4546017306249297</v>
+        <v>-0.454601733892396</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.96172479998731</v>
+        <v>-33.96172479671984</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N39" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.9778444647681468</v>
+        <v>-0.9778444643497224</v>
       </c>
       <c r="P39" t="n">
-        <v>0.9778444647681468</v>
+        <v>0.9778444643497224</v>
       </c>
       <c r="Q39" t="n">
         <v>8.066385775123893</v>
@@ -2563,25 +2563,25 @@
         <v>281.6388850701053</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1881481261525551</v>
+        <v>0.1881481247433001</v>
       </c>
       <c r="K40" t="n">
-        <v>-34.89018894247909</v>
+        <v>-34.89018894106983</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N40" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.906308607259923</v>
+        <v>-1.90630860869971</v>
       </c>
       <c r="P40" t="n">
-        <v>1.906308607259923</v>
+        <v>1.90630860869971</v>
       </c>
       <c r="Q40" t="n">
         <v>3.204076838791523</v>
@@ -2616,25 +2616,25 @@
         <v>492.5740732020875</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1408753522663915</v>
+        <v>0.1408753551656829</v>
       </c>
       <c r="K41" t="n">
-        <v>-32.00618147471538</v>
+        <v>-32.00618147761466</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N41" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9776988605037857</v>
+        <v>0.9776988547554595</v>
       </c>
       <c r="P41" t="n">
-        <v>0.9776988605037857</v>
+        <v>0.9776988547554595</v>
       </c>
       <c r="Q41" t="n">
         <v>64.99467499702425</v>
@@ -2669,25 +2669,25 @@
         <v>414.7142618968417</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.4545882033685373</v>
+        <v>-0.4545882066379718</v>
       </c>
       <c r="K42" t="n">
-        <v>-34.00255465377433</v>
+        <v>-34.00255465050489</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N42" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.018674318555163</v>
+        <v>-1.018674318134771</v>
       </c>
       <c r="P42" t="n">
-        <v>1.018674318555163</v>
+        <v>1.018674318134771</v>
       </c>
       <c r="Q42" t="n">
         <v>8.209472411476824</v>
@@ -2722,25 +2722,25 @@
         <v>281.7673892022045</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1882666829759643</v>
+        <v>0.1882666815671783</v>
       </c>
       <c r="K43" t="n">
-        <v>-36.31887892787393</v>
+        <v>-36.31887892646514</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N43" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O43" t="n">
-        <v>-3.334998592654763</v>
+        <v>-3.334998594095019</v>
       </c>
       <c r="P43" t="n">
-        <v>3.334998592654763</v>
+        <v>3.334998594095019</v>
       </c>
       <c r="Q43" t="n">
         <v>3.330963309983823</v>
@@ -2775,25 +2775,25 @@
         <v>492.7613518990831</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1411114530496391</v>
+        <v>0.1411114559504725</v>
       </c>
       <c r="K44" t="n">
-        <v>-31.76151961631495</v>
+        <v>-31.76151961921578</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N44" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O44" t="n">
-        <v>1.222360718904213</v>
+        <v>1.222360713154337</v>
       </c>
       <c r="P44" t="n">
-        <v>1.222360718904213</v>
+        <v>1.222360713154337</v>
       </c>
       <c r="Q44" t="n">
         <v>65.25486253147257</v>
@@ -2828,25 +2828,25 @@
         <v>414.8096023640401</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4546685649621054</v>
+        <v>-0.4546685682304457</v>
       </c>
       <c r="K45" t="n">
-        <v>-34.00247429218076</v>
+        <v>-34.00247428891242</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02209911768191607</v>
+        <v>0.0220991171797092</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.04824725354902708</v>
+        <v>-0.04824725395029179</v>
       </c>
       <c r="N45" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.018593956961595</v>
+        <v>-1.018593956542297</v>
       </c>
       <c r="P45" t="n">
-        <v>1.018593956961595</v>
+        <v>1.018593956542297</v>
       </c>
       <c r="Q45" t="n">
         <v>8.115789169036015</v>
@@ -2881,25 +2881,25 @@
         <v>492.5885484737794</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1810510120467157</v>
+        <v>0.1810510107885364</v>
       </c>
       <c r="K46" t="n">
-        <v>-27.88309182837325</v>
+        <v>-27.88309182711507</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01600227676446048</v>
+        <v>0.01600227698155643</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0543334886667961</v>
+        <v>-0.05433348849215153</v>
       </c>
       <c r="N46" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5268639351298248</v>
+        <v>0.5268639376332622</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5268639351298248</v>
+        <v>0.5268639376332622</v>
       </c>
       <c r="Q46" t="n">
         <v>65.02469238699081</v>
@@ -2934,25 +2934,25 @@
         <v>345.7814467409238</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1815658807071188</v>
+        <v>0.1815658454769995</v>
       </c>
       <c r="K47" t="n">
-        <v>-26.80197404397243</v>
+        <v>-26.80197400874231</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01384437554565771</v>
+        <v>0.01384439560607732</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.05995687440136698</v>
+        <v>-0.05995685834723148</v>
       </c>
       <c r="N47" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="O47" t="n">
-        <v>-3.93427675025611</v>
+        <v>-3.934276600606992</v>
       </c>
       <c r="P47" t="n">
-        <v>3.93427675025611</v>
+        <v>3.934276600606992</v>
       </c>
       <c r="Q47" t="n">
         <v>3.370315466686673</v>
@@ -2987,25 +2987,25 @@
         <v>272.6121120913526</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.05519185981995989</v>
+        <v>-0.05519186097449591</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.11623671160861</v>
+        <v>-17.11623671045407</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N48" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O48" t="n">
-        <v>1.088967258400075</v>
+        <v>1.088967258017071</v>
       </c>
       <c r="P48" t="n">
-        <v>1.088967258400075</v>
+        <v>1.088967258017071</v>
       </c>
       <c r="Q48" t="n">
         <v>4.46098146089248</v>
@@ -3040,28 +3040,28 @@
         <v>272.5791814214417</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.05517924145412678</v>
+        <v>-0.05517924260869478</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.11624932997444</v>
+        <v>-17.11624932881988</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N49" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O49" t="n">
-        <v>1.088954640034242</v>
+        <v>1.08895463965127</v>
       </c>
       <c r="P49" t="n">
-        <v>1.088954640034242</v>
+        <v>1.08895463965127</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.42819919504779</v>
+        <v>4.428199195047791</v>
       </c>
     </row>
     <row r="50">
@@ -3093,25 +3093,25 @@
         <v>203.0214763876526</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.02563237454512546</v>
+        <v>-0.02563237488276471</v>
       </c>
       <c r="K50" t="n">
-        <v>-18.6764084417814</v>
+        <v>-18.67640844144377</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N50" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.4712044717727188</v>
+        <v>-0.4712044729726195</v>
       </c>
       <c r="P50" t="n">
-        <v>0.4712044717727188</v>
+        <v>0.4712044729726195</v>
       </c>
       <c r="Q50" t="n">
         <v>58.29299349805837</v>
@@ -3146,25 +3146,25 @@
         <v>272.6566049311037</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.05521384246239336</v>
+        <v>-0.0552138436166878</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.07539840243557</v>
+        <v>-17.07539840128127</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.00524192363183366</v>
+        <v>-0.005241923893179587</v>
       </c>
       <c r="M51" t="n">
-        <v>0.02237965419872463</v>
+        <v>0.02237965398160556</v>
       </c>
       <c r="N51" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="O51" t="n">
-        <v>1.129805567573118</v>
+        <v>1.129805567189873</v>
       </c>
       <c r="P51" t="n">
-        <v>1.129805567573118</v>
+        <v>1.129805567189873</v>
       </c>
       <c r="Q51" t="n">
         <v>4.503696395340075</v>
@@ -3199,25 +3199,25 @@
         <v>342.6463985323942</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.1192062653891828</v>
+        <v>-0.1192063501966771</v>
       </c>
       <c r="K52" t="n">
-        <v>-10.86854883665163</v>
+        <v>-10.86854875184414</v>
       </c>
       <c r="L52" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M52" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N52" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O52" t="n">
-        <v>2.666833198867991</v>
+        <v>2.666833556842532</v>
       </c>
       <c r="P52" t="n">
-        <v>2.666833198867991</v>
+        <v>2.666833556842532</v>
       </c>
       <c r="Q52" t="n">
         <v>5.78438697303368</v>
@@ -3252,25 +3252,25 @@
         <v>272.7027648012388</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.03893563915986675</v>
+        <v>-0.03893546427085504</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.29575823839115</v>
+        <v>-13.29575841328016</v>
       </c>
       <c r="L53" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N53" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O53" t="n">
-        <v>0.2396237971284716</v>
+        <v>0.2396238954065062</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2396237971284716</v>
+        <v>0.2396238954065062</v>
       </c>
       <c r="Q53" t="n">
         <v>4.552811248249983</v>
@@ -3305,25 +3305,25 @@
         <v>342.6468721468077</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.1192007851935237</v>
+        <v>-0.1192008700121949</v>
       </c>
       <c r="K54" t="n">
-        <v>-10.90937064337791</v>
+        <v>-10.90937055855924</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N54" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O54" t="n">
-        <v>2.626011392141715</v>
+        <v>2.626011750127432</v>
       </c>
       <c r="P54" t="n">
-        <v>2.626011392141715</v>
+        <v>2.626011750127432</v>
       </c>
       <c r="Q54" t="n">
         <v>5.794187309304205</v>
@@ -3358,25 +3358,25 @@
         <v>201.785778139292</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.02494946051504066</v>
+        <v>-0.0249494095188183</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.84035666193394</v>
+        <v>-12.84035671293017</v>
       </c>
       <c r="L55" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N55" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O55" t="n">
-        <v>0.6950253735856791</v>
+        <v>0.695025595756503</v>
       </c>
       <c r="P55" t="n">
-        <v>0.6950253735856791</v>
+        <v>0.695025595756503</v>
       </c>
       <c r="Q55" t="n">
         <v>59.58319618756961</v>
@@ -3411,25 +3411,25 @@
         <v>272.689386147137</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.0389367412800361</v>
+        <v>-0.03893656640834742</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.29575713627098</v>
+        <v>-13.29575731114267</v>
       </c>
       <c r="L56" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N56" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O56" t="n">
-        <v>0.2396248992486409</v>
+        <v>0.2396249975439986</v>
       </c>
       <c r="P56" t="n">
-        <v>0.2396248992486409</v>
+        <v>0.2396249975439986</v>
       </c>
       <c r="Q56" t="n">
         <v>4.538381752788578</v>
@@ -3464,25 +3464,25 @@
         <v>342.6334350423106</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.1192005718256386</v>
+        <v>-0.1192006566154387</v>
       </c>
       <c r="K57" t="n">
-        <v>-10.9501871832764</v>
+        <v>-10.9501870984866</v>
       </c>
       <c r="L57" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N57" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O57" t="n">
-        <v>2.58519485224322</v>
+        <v>2.585195210200066</v>
       </c>
       <c r="P57" t="n">
-        <v>2.58519485224322</v>
+        <v>2.585195210200066</v>
       </c>
       <c r="Q57" t="n">
         <v>5.790302474001024</v>
@@ -3517,25 +3517,25 @@
         <v>201.8102971054708</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.02505862610755472</v>
+        <v>-0.02505857477686213</v>
       </c>
       <c r="K58" t="n">
-        <v>-17.0647372922598</v>
+        <v>-17.06473734359049</v>
       </c>
       <c r="L58" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N58" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.529355256740173</v>
+        <v>-3.529355034903817</v>
       </c>
       <c r="P58" t="n">
-        <v>3.529355256740173</v>
+        <v>3.529355034903817</v>
       </c>
       <c r="Q58" t="n">
         <v>60.11081773128225</v>
@@ -3570,25 +3570,25 @@
         <v>272.660986483105</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.03890201731822174</v>
+        <v>-0.03890184240349903</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.21415920717158</v>
+        <v>-13.2141593820863</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002177137551666867</v>
+        <v>0.002177178307251637</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04229329301962414</v>
+        <v>0.04229333118849485</v>
       </c>
       <c r="N59" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3212228283480467</v>
+        <v>0.3212229266003703</v>
       </c>
       <c r="P59" t="n">
-        <v>0.3212228283480467</v>
+        <v>0.3212229266003703</v>
       </c>
       <c r="Q59" t="n">
         <v>4.512271427517133</v>
@@ -3623,25 +3623,25 @@
         <v>202.0564894247832</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.09969440394315754</v>
+        <v>-0.09969429220740977</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.398264779730315</v>
+        <v>-6.398264891466063</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N60" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O60" t="n">
-        <v>2.014101322513032</v>
+        <v>2.014102089595472</v>
       </c>
       <c r="P60" t="n">
-        <v>2.014101322513032</v>
+        <v>2.014102089595472</v>
       </c>
       <c r="Q60" t="n">
         <v>59.55094419706982</v>
@@ -3676,25 +3676,25 @@
         <v>272.4719246597481</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.1956649817315554</v>
+        <v>-0.195664562581392</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.669641140717429</v>
+        <v>-8.669641559867593</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N61" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.2572750384740825</v>
+        <v>-0.257274578806058</v>
       </c>
       <c r="P61" t="n">
-        <v>0.2572750384740825</v>
+        <v>0.257274578806058</v>
       </c>
       <c r="Q61" t="n">
         <v>4.331662584311538</v>
@@ -3729,25 +3729,25 @@
         <v>201.7880712179627</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.0990238501381242</v>
+        <v>-0.09902373801911324</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.235670027412894</v>
+        <v>-7.235670139531905</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N62" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O62" t="n">
-        <v>1.176696074830453</v>
+        <v>1.17669684152963</v>
       </c>
       <c r="P62" t="n">
-        <v>1.176696074830453</v>
+        <v>1.17669684152963</v>
       </c>
       <c r="Q62" t="n">
         <v>59.50194840100855</v>
@@ -3782,25 +3782,25 @@
         <v>343.6331698279389</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.09504336940972991</v>
+        <v>-0.0950425261303085</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.688630099978035</v>
+        <v>-7.688630943257456</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N63" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O63" t="n">
-        <v>0.7237360022653121</v>
+        <v>0.7237360378040787</v>
       </c>
       <c r="P63" t="n">
-        <v>0.7237360022653121</v>
+        <v>0.7237360378040787</v>
       </c>
       <c r="Q63" t="n">
         <v>7.998207240144608</v>
@@ -3835,25 +3835,25 @@
         <v>201.4941195742618</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.09839554328816824</v>
+        <v>-0.09839543054613742</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.440379966915915</v>
+        <v>-6.440380079657945</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N64" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O64" t="n">
-        <v>1.971986135327432</v>
+        <v>1.971986901403589</v>
       </c>
       <c r="P64" t="n">
-        <v>1.971986135327432</v>
+        <v>1.971986901403589</v>
       </c>
       <c r="Q64" t="n">
         <v>59.58126265354454</v>
@@ -3888,25 +3888,25 @@
         <v>272.4899265604212</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.1956874137882458</v>
+        <v>-0.1956869946264135</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.669618708660739</v>
+        <v>-8.669619127822571</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.01106738553129996</v>
+        <v>-0.01106727985948869</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1136202201420725</v>
+        <v>0.1136203481625151</v>
       </c>
       <c r="N65" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.2572526064173921</v>
+        <v>-0.2572521467610365</v>
       </c>
       <c r="P65" t="n">
-        <v>0.2572526064173921</v>
+        <v>0.2572521467610365</v>
       </c>
       <c r="Q65" t="n">
         <v>4.350423607136873</v>
@@ -3941,28 +3941,28 @@
         <v>341.3599411962555</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.4583875007066025</v>
+        <v>-0.4583874994659718</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.202836989089318</v>
+        <v>-5.202836990329948</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N66" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.040721113424085</v>
+        <v>-1.040721117373013</v>
       </c>
       <c r="P66" t="n">
-        <v>1.040721113424085</v>
+        <v>1.040721117373013</v>
       </c>
       <c r="Q66" t="n">
-        <v>6.943554247420601</v>
+        <v>6.9435542474206</v>
       </c>
     </row>
     <row r="67">
@@ -3994,25 +3994,25 @@
         <v>201.840092499965</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.1841186724782462</v>
+        <v>-0.1841186727923398</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2779962234986515</v>
+        <v>0.2779962238127451</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N67" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O67" t="n">
-        <v>4.440112099163884</v>
+        <v>4.44011209676968</v>
       </c>
       <c r="P67" t="n">
-        <v>4.440112099163884</v>
+        <v>4.44011209676968</v>
       </c>
       <c r="Q67" t="n">
         <v>59.78826068652437</v>
@@ -4047,25 +4047,25 @@
         <v>339.9741471115726</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.4545032980165589</v>
+        <v>-0.4545032967893565</v>
       </c>
       <c r="K68" t="n">
-        <v>-5.165904865248751</v>
+        <v>-5.165904866475953</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N68" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O68" t="n">
-        <v>-1.003788989583518</v>
+        <v>-1.003788993519018</v>
       </c>
       <c r="P68" t="n">
-        <v>1.003788989583518</v>
+        <v>1.003788993519018</v>
       </c>
       <c r="Q68" t="n">
         <v>6.487206808987555</v>
@@ -4100,25 +4100,25 @@
         <v>201.7362194597296</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.183724068733695</v>
+        <v>-0.1837240690484334</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.2326024618785434</v>
+        <v>-0.2326024615638049</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N69" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O69" t="n">
-        <v>3.929513413786689</v>
+        <v>3.92951341139313</v>
       </c>
       <c r="P69" t="n">
-        <v>3.929513413786689</v>
+        <v>3.92951341139313</v>
       </c>
       <c r="Q69" t="n">
         <v>59.76155212152379</v>
@@ -4153,25 +4153,25 @@
         <v>375.2434473227402</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.3551453964302649</v>
+        <v>-0.3551453994982756</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.306079093365655</v>
+        <v>-4.306079090297644</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N70" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.1439632177004224</v>
+        <v>-0.1439632173407093</v>
       </c>
       <c r="P70" t="n">
-        <v>0.1439632177004224</v>
+        <v>0.1439632173407093</v>
       </c>
       <c r="Q70" t="n">
         <v>4.578631406829086</v>
@@ -4206,25 +4206,25 @@
         <v>341.3858524398695</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.4584577002965382</v>
+        <v>-0.4584576990556535</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.161950462968772</v>
+        <v>-5.161950464209657</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N71" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.999834587303539</v>
+        <v>-0.9998345912527213</v>
       </c>
       <c r="P71" t="n">
-        <v>0.999834587303539</v>
+        <v>0.9998345912527213</v>
       </c>
       <c r="Q71" t="n">
         <v>6.916620368102998</v>
@@ -4259,25 +4259,25 @@
         <v>201.7643601895811</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.1837400059085841</v>
+        <v>-0.1837400062228873</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.2734028512342643</v>
+        <v>-0.2734028509199611</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.04125131145916728</v>
+        <v>-0.04125131181063169</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1533494374243509</v>
+        <v>0.1533494369115584</v>
       </c>
       <c r="N72" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="O72" t="n">
-        <v>3.888713024430968</v>
+        <v>3.888713022036974</v>
       </c>
       <c r="P72" t="n">
-        <v>3.888713024430968</v>
+        <v>3.888713022036974</v>
       </c>
       <c r="Q72" t="n">
         <v>59.7132214315432</v>
@@ -4312,25 +4312,25 @@
         <v>201.6862739439146</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03676361904251024</v>
+        <v>0.03676358887317699</v>
       </c>
       <c r="K73" t="n">
-        <v>0.05711393197789505</v>
+        <v>0.0571139621472283</v>
       </c>
       <c r="L73" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N73" t="n">
         <v>1.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-1.442886068022105</v>
+        <v>-1.442886037852772</v>
       </c>
       <c r="P73" t="n">
-        <v>1.442886068022105</v>
+        <v>1.442886037852772</v>
       </c>
       <c r="Q73" t="n">
         <v>59.80431426893682</v>
@@ -4365,25 +4365,25 @@
         <v>344.5556701670137</v>
       </c>
       <c r="J74" t="n">
-        <v>0.019855894552403</v>
+        <v>0.01985570872207765</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.04842732312383502</v>
+        <v>-0.04842713729350967</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
       <c r="O74" t="n">
-        <v>-1.548427323123835</v>
+        <v>-1.54842713729351</v>
       </c>
       <c r="P74" t="n">
-        <v>1.548427323123835</v>
+        <v>1.54842713729351</v>
       </c>
       <c r="Q74" t="n">
         <v>5.588633066647377</v>
@@ -4418,25 +4418,25 @@
         <v>201.7264702905462</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03680570829840724</v>
+        <v>0.03680567813459978</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.1266016266657579</v>
+        <v>-0.1266015965019505</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N75" t="n">
         <v>1.5</v>
       </c>
       <c r="O75" t="n">
-        <v>-1.626601626665758</v>
+        <v>-1.62660159650195</v>
       </c>
       <c r="P75" t="n">
-        <v>1.626601626665758</v>
+        <v>1.62660159650195</v>
       </c>
       <c r="Q75" t="n">
         <v>59.81381167832081</v>
@@ -4471,25 +4471,25 @@
         <v>413.3846036555638</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.4422233311546329</v>
+        <v>-0.4422235045263765</v>
       </c>
       <c r="K76" t="n">
-        <v>1.495284555644428</v>
+        <v>1.495284729016172</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N76" t="n">
         <v>1.5</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.004715444355571918</v>
+        <v>-0.00471527098382829</v>
       </c>
       <c r="P76" t="n">
-        <v>0.004715444355571918</v>
+        <v>0.00471527098382829</v>
       </c>
       <c r="Q76" t="n">
         <v>4.206247378649035</v>
@@ -4524,25 +4524,25 @@
         <v>201.6441472124423</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03673017242027754</v>
+        <v>0.03673014223082793</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.2081587438488484</v>
+        <v>-0.2081587136593988</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N77" t="n">
         <v>1.5</v>
       </c>
       <c r="O77" t="n">
-        <v>-1.708158743848848</v>
+        <v>-1.708158713659399</v>
       </c>
       <c r="P77" t="n">
-        <v>1.708158743848848</v>
+        <v>1.708158713659399</v>
       </c>
       <c r="Q77" t="n">
         <v>59.83189105391106</v>
@@ -4577,25 +4577,25 @@
         <v>271.8313574568668</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06732650646602245</v>
+        <v>0.06732640449891081</v>
       </c>
       <c r="K78" t="n">
-        <v>1.312265330268668</v>
+        <v>1.312265432235779</v>
       </c>
       <c r="L78" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N78" t="n">
         <v>1.5</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.1877346697313325</v>
+        <v>-0.1877345677642208</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1877346697313325</v>
+        <v>0.1877345677642208</v>
       </c>
       <c r="Q78" t="n">
         <v>3.702213673340544</v>
@@ -4630,25 +4630,25 @@
         <v>344.6172749340896</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02003524283334857</v>
+        <v>0.02003505709878617</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.007790344874163413</v>
+        <v>-0.007790159139601016</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001824279837643241</v>
+        <v>0.001824256428774094</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.0484980112397529</v>
+        <v>-0.04849803204074326</v>
       </c>
       <c r="N79" t="n">
         <v>1.5</v>
       </c>
       <c r="O79" t="n">
-        <v>-1.507790344874163</v>
+        <v>-1.507790159139601</v>
       </c>
       <c r="P79" t="n">
-        <v>1.507790344874163</v>
+        <v>1.507790159139601</v>
       </c>
       <c r="Q79" t="n">
         <v>5.449056980381121</v>
@@ -4683,25 +4683,25 @@
         <v>341.7838070489366</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1834816377028146</v>
+        <v>0.1834814359742287</v>
       </c>
       <c r="K80" t="n">
-        <v>5.359375505154337</v>
+        <v>5.359375706882923</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N80" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O80" t="n">
-        <v>-1.52421506663149</v>
+        <v>-1.524214169585377</v>
       </c>
       <c r="P80" t="n">
-        <v>1.52421506663149</v>
+        <v>1.524214169585377</v>
       </c>
       <c r="Q80" t="n">
         <v>6.527374093457546</v>
@@ -4736,25 +4736,25 @@
         <v>201.9007214072739</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02667670560892432</v>
+        <v>0.02667687735848023</v>
       </c>
       <c r="K81" t="n">
-        <v>5.026384518880871</v>
+        <v>5.026384347131315</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N81" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O81" t="n">
-        <v>-1.857206052904957</v>
+        <v>-1.857205529336985</v>
       </c>
       <c r="P81" t="n">
-        <v>1.857206052904957</v>
+        <v>1.857205529336985</v>
       </c>
       <c r="Q81" t="n">
         <v>59.52252569278897</v>
@@ -4789,25 +4789,25 @@
         <v>347.040879096737</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1367665151683601</v>
+        <v>0.1367668854333015</v>
       </c>
       <c r="K82" t="n">
-        <v>5.120376341974485</v>
+        <v>5.120375971709544</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N82" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O82" t="n">
-        <v>-1.763214229811342</v>
+        <v>-1.763213904758756</v>
       </c>
       <c r="P82" t="n">
-        <v>1.763214229811342</v>
+        <v>1.763213904758756</v>
       </c>
       <c r="Q82" t="n">
         <v>7.51953684542746</v>
@@ -4842,28 +4842,28 @@
         <v>344.7612419665435</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.07501871458527809</v>
+        <v>-0.07501771136745106</v>
       </c>
       <c r="K83" t="n">
-        <v>5.372977898258748</v>
+        <v>5.372976895040921</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N83" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O83" t="n">
-        <v>-1.51061267352708</v>
+        <v>-1.510612981427379</v>
       </c>
       <c r="P83" t="n">
-        <v>1.51061267352708</v>
+        <v>1.510612981427379</v>
       </c>
       <c r="Q83" t="n">
-        <v>5.66383476702974</v>
+        <v>5.663834767029739</v>
       </c>
     </row>
     <row r="84">
@@ -4895,25 +4895,25 @@
         <v>341.409015338787</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1830093936818518</v>
+        <v>0.1830091926156694</v>
       </c>
       <c r="K84" t="n">
-        <v>5.40066407570591</v>
+        <v>5.400664276772092</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N84" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O84" t="n">
-        <v>-1.482926496079918</v>
+        <v>-1.482925599696208</v>
       </c>
       <c r="P84" t="n">
-        <v>1.482926496079918</v>
+        <v>1.482925599696208</v>
       </c>
       <c r="Q84" t="n">
         <v>6.933708295135046</v>
@@ -4948,25 +4948,25 @@
         <v>201.606582383026</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02633693973102336</v>
+        <v>0.02633711222336466</v>
       </c>
       <c r="K85" t="n">
-        <v>4.271622243942446</v>
+        <v>4.271622071450105</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N85" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O85" t="n">
-        <v>-2.611968327843381</v>
+        <v>-2.611967805018195</v>
       </c>
       <c r="P85" t="n">
-        <v>2.611968327843381</v>
+        <v>2.611967805018195</v>
       </c>
       <c r="Q85" t="n">
         <v>59.74166093467606</v>
@@ -5001,25 +5001,25 @@
         <v>346.4728871901609</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1371562141791856</v>
+        <v>0.137156580693679</v>
       </c>
       <c r="K86" t="n">
-        <v>4.99753766337183</v>
+        <v>4.997537296857336</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N86" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O86" t="n">
-        <v>-1.886052908413998</v>
+        <v>-1.886052579610964</v>
       </c>
       <c r="P86" t="n">
-        <v>1.886052908413998</v>
+        <v>1.886052579610964</v>
       </c>
       <c r="Q86" t="n">
         <v>5.903529699840212</v>
@@ -5054,25 +5054,25 @@
         <v>345.0643530459349</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.07284257621994694</v>
+        <v>-0.07284157736594299</v>
       </c>
       <c r="K87" t="n">
-        <v>5.329985433362793</v>
+        <v>5.329984434508789</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N87" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O87" t="n">
-        <v>-1.553605138423035</v>
+        <v>-1.553605441959512</v>
       </c>
       <c r="P87" t="n">
-        <v>1.553605138423035</v>
+        <v>1.553605441959512</v>
       </c>
       <c r="Q87" t="n">
         <v>4.511753580676586</v>
@@ -5107,25 +5107,25 @@
         <v>341.31084240704</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1828893148861965</v>
+        <v>0.1828891140143867</v>
       </c>
       <c r="K88" t="n">
-        <v>5.359967827970955</v>
+        <v>5.359968028842765</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N88" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O88" t="n">
-        <v>-1.523622743814872</v>
+        <v>-1.523621847625535</v>
       </c>
       <c r="P88" t="n">
-        <v>1.523622743814872</v>
+        <v>1.523621847625535</v>
       </c>
       <c r="Q88" t="n">
         <v>7.035338606467948</v>
@@ -5160,25 +5160,25 @@
         <v>201.6905147161951</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0264369566571796</v>
+        <v>0.02643712898883877</v>
       </c>
       <c r="K89" t="n">
-        <v>5.026624267832616</v>
+        <v>5.026624095500956</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N89" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O89" t="n">
-        <v>-1.856966303953212</v>
+        <v>-1.856965780967344</v>
       </c>
       <c r="P89" t="n">
-        <v>1.856966303953212</v>
+        <v>1.856965780967344</v>
       </c>
       <c r="Q89" t="n">
         <v>59.70308813087207</v>
@@ -5213,25 +5213,25 @@
         <v>346.9274105289595</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1368745544577692</v>
+        <v>0.1368749238451086</v>
       </c>
       <c r="K90" t="n">
-        <v>5.120268302685076</v>
+        <v>5.120267933297737</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N90" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O90" t="n">
-        <v>-1.763322269100751</v>
+        <v>-1.763321943170563</v>
       </c>
       <c r="P90" t="n">
-        <v>1.763322269100751</v>
+        <v>1.763321943170563</v>
       </c>
       <c r="Q90" t="n">
         <v>7.14928756139775</v>
@@ -5266,25 +5266,25 @@
         <v>272.5767300768777</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02445928164942135</v>
+        <v>0.02445984814831714</v>
       </c>
       <c r="K91" t="n">
-        <v>5.64084684079956</v>
+        <v>5.640846274300665</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N91" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O91" t="n">
-        <v>-1.242743730986267</v>
+        <v>-1.242743602167636</v>
       </c>
       <c r="P91" t="n">
-        <v>1.242743730986267</v>
+        <v>1.242743602167636</v>
       </c>
       <c r="Q91" t="n">
         <v>4.439096089906753</v>
@@ -5319,25 +5319,25 @@
         <v>343.7183180616155</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.08015554134097957</v>
+        <v>-0.08015452856550009</v>
       </c>
       <c r="K92" t="n">
-        <v>5.45974737807567</v>
+        <v>5.45974636530019</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.01024693172177785</v>
+        <v>-0.01024680555722295</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.06685350028273637</v>
+        <v>-0.06685340266617117</v>
       </c>
       <c r="N92" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="O92" t="n">
-        <v>-1.423843193710158</v>
+        <v>-1.42384351116811</v>
       </c>
       <c r="P92" t="n">
-        <v>1.423843193710158</v>
+        <v>1.42384351116811</v>
       </c>
       <c r="Q92" t="n">
         <v>9.141657999578101</v>
@@ -5372,25 +5372,25 @@
         <v>415.9210071112147</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.5337317226871754</v>
+        <v>-0.5337317215282216</v>
       </c>
       <c r="K93" t="n">
-        <v>8.158221518605547</v>
+        <v>8.158221517446593</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N93" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O93" t="n">
-        <v>-4.136006079615738</v>
+        <v>-4.136006079765446</v>
       </c>
       <c r="P93" t="n">
-        <v>4.136006079615738</v>
+        <v>4.136006079765446</v>
       </c>
       <c r="Q93" t="n">
         <v>6.391302101400909</v>
@@ -5425,25 +5425,25 @@
         <v>342.7395431362294</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1649724686004816</v>
+        <v>0.1649724682978881</v>
       </c>
       <c r="K94" t="n">
-        <v>10.58196630690972</v>
+        <v>10.58196630721231</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N94" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O94" t="n">
-        <v>-1.712261291311565</v>
+        <v>-1.712261289999725</v>
       </c>
       <c r="P94" t="n">
-        <v>1.712261291311565</v>
+        <v>1.712261289999725</v>
       </c>
       <c r="Q94" t="n">
         <v>5.642816429576273</v>
@@ -5478,25 +5478,25 @@
         <v>347.6792783476744</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1303880950122913</v>
+        <v>0.130388095522914</v>
       </c>
       <c r="K95" t="n">
-        <v>10.00430578253872</v>
+        <v>10.0043057820281</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N95" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O95" t="n">
-        <v>-2.289921815682561</v>
+        <v>-2.289921815183938</v>
       </c>
       <c r="P95" t="n">
-        <v>2.289921815682561</v>
+        <v>2.289921815183938</v>
       </c>
       <c r="Q95" t="n">
         <v>8.757678395674644</v>
@@ -5531,25 +5531,25 @@
         <v>273.0170594273967</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03151524356196589</v>
+        <v>0.03151524435394926</v>
       </c>
       <c r="K96" t="n">
-        <v>12.22562761358088</v>
+        <v>12.2256276127889</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N96" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.06859998464040551</v>
+        <v>-0.06859998442314286</v>
       </c>
       <c r="P96" t="n">
-        <v>0.06859998464040551</v>
+        <v>0.06859998442314286</v>
       </c>
       <c r="Q96" t="n">
         <v>4.876331350030285</v>
@@ -5584,25 +5584,25 @@
         <v>415.4563258997372</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.5340416234020608</v>
+        <v>-0.5340416222389273</v>
       </c>
       <c r="K97" t="n">
-        <v>8.36261305197349</v>
+        <v>8.362613050810356</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N97" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O97" t="n">
-        <v>-3.931614546247795</v>
+        <v>-3.931614546401683</v>
       </c>
       <c r="P97" t="n">
-        <v>3.931614546247795</v>
+        <v>3.931614546401683</v>
       </c>
       <c r="Q97" t="n">
         <v>7.592075960783585</v>
@@ -5637,25 +5637,25 @@
         <v>342.7348064455174</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1649673637131652</v>
+        <v>0.1649673634105877</v>
       </c>
       <c r="K98" t="n">
-        <v>10.54115508526643</v>
+        <v>10.541155085569</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N98" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O98" t="n">
-        <v>-1.753072512954859</v>
+        <v>-1.753072511643035</v>
       </c>
       <c r="P98" t="n">
-        <v>1.753072512954859</v>
+        <v>1.753072511643035</v>
       </c>
       <c r="Q98" t="n">
         <v>5.647651931211578</v>
@@ -5690,25 +5690,25 @@
         <v>201.2391070390448</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02627844484676878</v>
+        <v>0.02627844508670307</v>
       </c>
       <c r="K99" t="n">
-        <v>12.47576237147976</v>
+        <v>12.47576237123982</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N99" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1815347732584733</v>
+        <v>0.1815347740277851</v>
       </c>
       <c r="P99" t="n">
-        <v>0.1815347732584733</v>
+        <v>0.1815347740277851</v>
       </c>
       <c r="Q99" t="n">
         <v>59.7064893690173</v>
@@ -5743,25 +5743,25 @@
         <v>347.6332381348289</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1303850672700246</v>
+        <v>0.1303850677804181</v>
       </c>
       <c r="K100" t="n">
-        <v>10.0451251368116</v>
+        <v>10.04512513630121</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N100" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O100" t="n">
-        <v>-2.249102461409684</v>
+        <v>-2.249102460910832</v>
       </c>
       <c r="P100" t="n">
-        <v>2.249102461409684</v>
+        <v>2.249102460910832</v>
       </c>
       <c r="Q100" t="n">
         <v>8.676184221557074</v>
@@ -5796,25 +5796,25 @@
         <v>415.9472303543046</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.5337349392574335</v>
+        <v>-0.533734938098581</v>
       </c>
       <c r="K101" t="n">
-        <v>8.239857388237025</v>
+        <v>8.239857387078173</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N101" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O101" t="n">
-        <v>-4.05437020998426</v>
+        <v>-4.054370210133866</v>
       </c>
       <c r="P101" t="n">
-        <v>4.05437020998426</v>
+        <v>4.054370210133866</v>
       </c>
       <c r="Q101" t="n">
         <v>6.357573722416353</v>
@@ -5849,25 +5849,25 @@
         <v>342.8997567210633</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1651521957093731</v>
+        <v>0.1651521954063675</v>
       </c>
       <c r="K102" t="n">
-        <v>10.58178657980083</v>
+        <v>10.58178658010383</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N102" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O102" t="n">
-        <v>-1.712441018420456</v>
+        <v>-1.712441017108205</v>
       </c>
       <c r="P102" t="n">
-        <v>1.712441018420456</v>
+        <v>1.712441017108205</v>
       </c>
       <c r="Q102" t="n">
         <v>5.468410159124653</v>
@@ -5902,25 +5902,25 @@
         <v>202.000092670314</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02712265869716823</v>
+        <v>0.02712265893578802</v>
       </c>
       <c r="K103" t="n">
-        <v>15.80144876987426</v>
+        <v>15.80144876963564</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N103" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O103" t="n">
-        <v>3.507221171652976</v>
+        <v>3.507221172423602</v>
       </c>
       <c r="P103" t="n">
-        <v>3.507221171652976</v>
+        <v>3.507221172423602</v>
       </c>
       <c r="Q103" t="n">
         <v>59.62715052855335</v>
@@ -5955,25 +5955,25 @@
         <v>347.678515253514</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1303004329183519</v>
+        <v>0.130300433429607</v>
       </c>
       <c r="K104" t="n">
-        <v>10.12684242422449</v>
+        <v>10.12684242371324</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.007359601509549474</v>
+        <v>-0.007359601331721075</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.05938080575868231</v>
+        <v>-0.05938080561582915</v>
       </c>
       <c r="N104" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="O104" t="n">
-        <v>-2.167385173996792</v>
+        <v>-2.167385173498801</v>
       </c>
       <c r="P104" t="n">
-        <v>2.167385173996792</v>
+        <v>2.167385173498801</v>
       </c>
       <c r="Q104" t="n">
         <v>8.916476610301034</v>
@@ -6008,25 +6008,25 @@
         <v>415.6881128621935</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.4555044583245724</v>
+        <v>-0.4555183394431097</v>
       </c>
       <c r="K105" t="n">
-        <v>12.75346364199804</v>
+        <v>12.75347752311658</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.009826763377500766</v>
+        <v>-0.009828890673531106</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.05093245158564415</v>
+        <v>-0.05093415708189181</v>
       </c>
       <c r="N105" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="O105" t="n">
-        <v>-4.253624124096174</v>
+        <v>-4.253622391859583</v>
       </c>
       <c r="P105" t="n">
-        <v>4.253624124096174</v>
+        <v>4.253622391859583</v>
       </c>
       <c r="Q105" t="n">
         <v>7.474390919439775</v>
@@ -6061,25 +6061,25 @@
         <v>415.687127329443</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.4554430738050037</v>
+        <v>-0.455456949998716</v>
       </c>
       <c r="K106" t="n">
-        <v>12.71258593094785</v>
+        <v>12.71259980714156</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.009826763377500766</v>
+        <v>-0.009828890673531106</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.05093245158564415</v>
+        <v>-0.05093415708189181</v>
       </c>
       <c r="N106" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="O106" t="n">
-        <v>-4.294501835146367</v>
+        <v>-4.294500107834601</v>
       </c>
       <c r="P106" t="n">
-        <v>4.294501835146367</v>
+        <v>4.294500107834601</v>
       </c>
       <c r="Q106" t="n">
         <v>7.370570864340482</v>
@@ -6114,25 +6114,25 @@
         <v>282.6928913061575</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.02029614377514122</v>
+        <v>-0.02029614301962113</v>
       </c>
       <c r="K107" t="n">
-        <v>34.03254104173433</v>
+        <v>34.03254104097881</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="N107" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="O107" t="n">
-        <v>1.399769318589556</v>
+        <v>1.399769319433197</v>
       </c>
       <c r="P107" t="n">
-        <v>1.399769318589556</v>
+        <v>1.399769319433197</v>
       </c>
       <c r="Q107" t="n">
         <v>4.267360978468028</v>
@@ -6167,25 +6167,25 @@
         <v>282.766652699789</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.02031743484749882</v>
+        <v>-0.02031743409150977</v>
       </c>
       <c r="K108" t="n">
-        <v>34.3999092715822</v>
+        <v>34.39990927082621</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="N108" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="O108" t="n">
-        <v>1.767137548437425</v>
+        <v>1.767137549280598</v>
       </c>
       <c r="P108" t="n">
-        <v>1.767137548437425</v>
+        <v>1.767137549280598</v>
       </c>
       <c r="Q108" t="n">
         <v>4.358778486296902</v>
@@ -6220,25 +6220,25 @@
         <v>282.696713635197</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.02031178930040767</v>
+        <v>-0.02031178854467441</v>
       </c>
       <c r="K109" t="n">
-        <v>32.64480158521878</v>
+        <v>32.64480158446305</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.01700462157504085</v>
+        <v>-0.01700462130075263</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.02774809075181531</v>
+        <v>-0.02774809052601302</v>
       </c>
       <c r="N109" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="O109" t="n">
-        <v>0.01202986207400869</v>
+        <v>0.01202986291743713</v>
       </c>
       <c r="P109" t="n">
-        <v>0.01202986207400869</v>
+        <v>0.01202986291743713</v>
       </c>
       <c r="Q109" t="n">
         <v>4.277545822691081</v>
@@ -6273,25 +6273,25 @@
         <v>283.209889335871</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.02401479993398681</v>
+        <v>-0.02401402283657461</v>
       </c>
       <c r="K110" t="n">
-        <v>38.36279031013807</v>
+        <v>38.36278953304065</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N110" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O110" t="n">
-        <v>0.6698754839578243</v>
+        <v>0.6698763032738739</v>
       </c>
       <c r="P110" t="n">
-        <v>0.6698754839578243</v>
+        <v>0.6698763032738739</v>
       </c>
       <c r="Q110" t="n">
         <v>4.78370227269083</v>
@@ -6326,25 +6326,25 @@
         <v>283.2367217459971</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.02407171280101039</v>
+        <v>-0.02407093492867318</v>
       </c>
       <c r="K111" t="n">
-        <v>36.48529620259693</v>
+        <v>36.48529542472459</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.01865987549203853</v>
+        <v>-0.01865959589920772</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.02945354722412365</v>
+        <v>-0.02945332112254317</v>
       </c>
       <c r="N111" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="O111" t="n">
-        <v>-1.207618623583315</v>
+        <v>-1.20761780504219</v>
       </c>
       <c r="P111" t="n">
-        <v>1.207618623583315</v>
+        <v>1.20761780504219</v>
       </c>
       <c r="Q111" t="n">
         <v>4.833396206945807</v>
@@ -6379,25 +6379,25 @@
         <v>531.3385378867366</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06780626210810681</v>
+        <v>0.06780626945157309</v>
       </c>
       <c r="K112" t="n">
-        <v>39.35260190115719</v>
+        <v>39.35260189381373</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N112" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O112" t="n">
-        <v>-3.0863644567088</v>
+        <v>-3.08636445259836</v>
       </c>
       <c r="P112" t="n">
-        <v>3.0863644567088</v>
+        <v>3.08636445259836</v>
       </c>
       <c r="Q112" t="n">
         <v>95.24287045001471</v>
@@ -6432,25 +6432,25 @@
         <v>530.1160613591845</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06748617801222423</v>
+        <v>0.06748618537504569</v>
       </c>
       <c r="K113" t="n">
-        <v>47.35292198525308</v>
+        <v>47.35292197789025</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.01676473370928322</v>
+        <v>-0.01676473170479799</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0004251725020021173</v>
+        <v>0.0004251741114202026</v>
       </c>
       <c r="N113" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="O113" t="n">
-        <v>4.913955627387082</v>
+        <v>4.913955631478167</v>
       </c>
       <c r="P113" t="n">
-        <v>4.913955627387082</v>
+        <v>4.913955631478167</v>
       </c>
       <c r="Q113" t="n">
         <v>93.98544312265288</v>
@@ -6485,25 +6485,25 @@
         <v>515.4495155743402</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04348886969385291</v>
+        <v>0.04350156638732017</v>
       </c>
       <c r="K114" t="n">
-        <v>47.25447031397961</v>
+        <v>47.25445761728614</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M114" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N114" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.4845843191411419</v>
+        <v>-0.4846080601445095</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4845843191411419</v>
+        <v>0.4846080601445095</v>
       </c>
       <c r="Q114" t="n">
         <v>3.912069315818125</v>
@@ -6538,25 +6538,25 @@
         <v>490.9155705993065</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04630532961396483</v>
+        <v>0.0463164514337322</v>
       </c>
       <c r="K115" t="n">
-        <v>47.29247018059012</v>
+        <v>47.29245905877035</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N115" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.4465844525306366</v>
+        <v>-0.4466066186603044</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4465844525306366</v>
+        <v>0.4466066186603044</v>
       </c>
       <c r="Q115" t="n">
         <v>64.81567390332062</v>
@@ -6591,25 +6591,25 @@
         <v>520.3740024903194</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02170360466474364</v>
+        <v>0.0216929516048765</v>
       </c>
       <c r="K116" t="n">
-        <v>51.72523517084545</v>
+        <v>51.72524582390532</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N116" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O116" t="n">
-        <v>3.986180537724699</v>
+        <v>3.986180146474666</v>
       </c>
       <c r="P116" t="n">
-        <v>3.986180537724699</v>
+        <v>3.986180146474666</v>
       </c>
       <c r="Q116" t="n">
         <v>78.51786806265048</v>
@@ -6644,25 +6644,25 @@
         <v>515.6312144736766</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04342940024329778</v>
+        <v>0.04344210809600924</v>
       </c>
       <c r="K117" t="n">
-        <v>50.41779508955261</v>
+        <v>50.41778238169989</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N117" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O117" t="n">
-        <v>2.678740456431854</v>
+        <v>2.678716704269242</v>
       </c>
       <c r="P117" t="n">
-        <v>2.678740456431854</v>
+        <v>2.678716704269242</v>
       </c>
       <c r="Q117" t="n">
         <v>3.481855342483091</v>
@@ -6697,25 +6697,25 @@
         <v>490.1568266160824</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04618108042159008</v>
+        <v>0.04619217044050572</v>
       </c>
       <c r="K118" t="n">
-        <v>47.04769647059882</v>
+        <v>47.0476853805799</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N118" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.6913581625219365</v>
+        <v>-0.6913802968507525</v>
       </c>
       <c r="P118" t="n">
-        <v>0.6913581625219365</v>
+        <v>0.6913802968507525</v>
       </c>
       <c r="Q118" t="n">
         <v>64.42158765769312</v>
@@ -6750,25 +6750,25 @@
         <v>490.8012233079557</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04632023135166463</v>
+        <v>0.04633134389067095</v>
       </c>
       <c r="K119" t="n">
-        <v>46.9251083400769</v>
+        <v>46.9250972275379</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002183831943816201</v>
+        <v>-0.002185766350433432</v>
       </c>
       <c r="M119" t="n">
-        <v>-0.01006850280493628</v>
+        <v>-0.01007005633392401</v>
       </c>
       <c r="N119" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.8139462930438484</v>
+        <v>-0.8139684498927551</v>
       </c>
       <c r="P119" t="n">
-        <v>0.8139462930438484</v>
+        <v>0.8139684498927551</v>
       </c>
       <c r="Q119" t="n">
         <v>65.13294196117414</v>
@@ -6803,25 +6803,25 @@
         <v>516.0442666325026</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01060251420455671</v>
+        <v>0.01060317555537438</v>
       </c>
       <c r="K120" t="n">
-        <v>52.57307095518324</v>
+        <v>52.57307029383242</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M120" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N120" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.6990779309469275</v>
+        <v>-0.6990791671425143</v>
       </c>
       <c r="P120" t="n">
-        <v>0.6990779309469275</v>
+        <v>0.6990791671425143</v>
       </c>
       <c r="Q120" t="n">
         <v>5.572862612296609</v>
@@ -6856,28 +6856,28 @@
         <v>489.0544424516141</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.01363094584424829</v>
+        <v>-0.0136303709508141</v>
       </c>
       <c r="K121" t="n">
-        <v>52.43403910910955</v>
+        <v>52.43403853421611</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M121" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N121" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.8381097770206196</v>
+        <v>-0.8381109267588229</v>
       </c>
       <c r="P121" t="n">
-        <v>0.8381097770206196</v>
+        <v>0.8381109267588229</v>
       </c>
       <c r="Q121" t="n">
-        <v>63.6194515236709</v>
+        <v>63.61945152367091</v>
       </c>
     </row>
     <row r="122">
@@ -6909,25 +6909,25 @@
         <v>488.3745111650526</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.01364891001952628</v>
+        <v>-0.01364833665947174</v>
       </c>
       <c r="K122" t="n">
-        <v>52.67895503246853</v>
+        <v>52.67895445910847</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M122" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N122" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.5931938536616386</v>
+        <v>-0.5931950018664622</v>
       </c>
       <c r="P122" t="n">
-        <v>0.5931938536616386</v>
+        <v>0.5931950018664622</v>
       </c>
       <c r="Q122" t="n">
         <v>63.36259536269998</v>
@@ -6962,25 +6962,25 @@
         <v>515.899439349142</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01065535413327012</v>
+        <v>0.01065601519611903</v>
       </c>
       <c r="K123" t="n">
-        <v>48.40975280913203</v>
+        <v>48.40975214806918</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N123" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O123" t="n">
-        <v>-4.862396076998138</v>
+        <v>-4.862397312905756</v>
       </c>
       <c r="P123" t="n">
-        <v>4.862396076998138</v>
+        <v>4.862397312905756</v>
       </c>
       <c r="Q123" t="n">
         <v>5.509281462346614</v>
@@ -7015,25 +7015,25 @@
         <v>489.2563457823804</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.0136296184614082</v>
+        <v>-0.01362904311896784</v>
       </c>
       <c r="K124" t="n">
-        <v>54.22995614907361</v>
+        <v>54.22995557373117</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.01473220053476121</v>
+        <v>-0.01473230114615368</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01242665459990214</v>
+        <v>0.01242657371393309</v>
       </c>
       <c r="N124" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="O124" t="n">
-        <v>0.9578072629434402</v>
+        <v>0.9578061127562307</v>
       </c>
       <c r="P124" t="n">
-        <v>0.9578072629434402</v>
+        <v>0.9578061127562307</v>
       </c>
       <c r="Q124" t="n">
         <v>63.70732081478868</v>

--- a/publication/analyses/outputs/outliers/gdpt_nneigh_errxy_relative_focus_invalid-only.xlsx
+++ b/publication/analyses/outputs/outliers/gdpt_nneigh_errxy_relative_focus_invalid-only.xlsx
@@ -549,25 +549,25 @@
         <v>491.699372022274</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1517413022108158</v>
+        <v>0.151741304833898</v>
       </c>
       <c r="K2" t="n">
-        <v>-46.60888415935367</v>
+        <v>-46.60888416197675</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N2" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O2" t="n">
-        <v>1.199399125043527</v>
+        <v>1.199399119835114</v>
       </c>
       <c r="P2" t="n">
-        <v>1.199399125043527</v>
+        <v>1.199399119835114</v>
       </c>
       <c r="Q2" t="n">
         <v>64.48502680147463</v>
@@ -602,25 +602,25 @@
         <v>519.3708207195491</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1840055710659527</v>
+        <v>0.1840055685321005</v>
       </c>
       <c r="K3" t="n">
-        <v>-46.80441373433126</v>
+        <v>-46.80441373179741</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N3" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O3" t="n">
-        <v>1.003869550065936</v>
+        <v>1.003869550014457</v>
       </c>
       <c r="P3" t="n">
-        <v>1.003869550065936</v>
+        <v>1.003869550014457</v>
       </c>
       <c r="Q3" t="n">
         <v>77.98095756683703</v>
@@ -655,28 +655,28 @@
         <v>491.8032902804998</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1519590723559503</v>
+        <v>0.1519590749791817</v>
       </c>
       <c r="K4" t="n">
-        <v>-46.40502029684575</v>
+        <v>-46.40502029946898</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N4" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O4" t="n">
-        <v>1.40326298755145</v>
+        <v>1.403262982342888</v>
       </c>
       <c r="P4" t="n">
-        <v>1.40326298755145</v>
+        <v>1.403262982342888</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.84599986367107</v>
+        <v>64.84599986367108</v>
       </c>
     </row>
     <row r="5">
@@ -708,25 +708,25 @@
         <v>414.5228917489858</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3577885063339181</v>
+        <v>-0.357788509291538</v>
       </c>
       <c r="K5" t="n">
-        <v>-43.18098700387016</v>
+        <v>-43.18098700091254</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N5" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O5" t="n">
-        <v>4.627296280527034</v>
+        <v>4.627296280899323</v>
       </c>
       <c r="P5" t="n">
-        <v>4.627296280527034</v>
+        <v>4.627296280899323</v>
       </c>
       <c r="Q5" t="n">
         <v>8.215553506191412</v>
@@ -761,25 +761,25 @@
         <v>137.2147312743294</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1571412507316126</v>
+        <v>-0.1571412525493372</v>
       </c>
       <c r="K6" t="n">
-        <v>-45.97347099416635</v>
+        <v>-45.97347099234862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N6" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O6" t="n">
-        <v>1.83481229023085</v>
+        <v>1.834812289463244</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83481229023085</v>
+        <v>1.834812289463244</v>
       </c>
       <c r="Q6" t="n">
         <v>14.76656346632181</v>
@@ -814,25 +814,25 @@
         <v>519.9087863088206</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1842271178723607</v>
+        <v>0.1842271153364479</v>
       </c>
       <c r="K7" t="n">
-        <v>-47.17198221991318</v>
+        <v>-47.17198221737727</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002923743260173834</v>
+        <v>0.002923742802869807</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03917525184998123</v>
+        <v>-0.03917525221329163</v>
       </c>
       <c r="N7" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6363010644840159</v>
+        <v>0.6363010644345977</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6363010644840159</v>
+        <v>0.6363010644345977</v>
       </c>
       <c r="Q7" t="n">
         <v>78.12511790614536</v>
@@ -867,25 +867,25 @@
         <v>491.9601092187807</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06388436230177064</v>
+        <v>0.06388409417417762</v>
       </c>
       <c r="K8" t="n">
-        <v>-42.27612926026096</v>
+        <v>-42.27612899213337</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N8" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8702288432342442</v>
+        <v>0.8702293763699203</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8702288432342442</v>
+        <v>0.8702293763699203</v>
       </c>
       <c r="Q8" t="n">
         <v>64.58695524870947</v>
@@ -920,25 +920,25 @@
         <v>414.6313786754268</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3319510269829919</v>
+        <v>-0.3319507239420929</v>
       </c>
       <c r="K9" t="n">
-        <v>-42.32927346281293</v>
+        <v>-42.32927376585383</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N9" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8170846406822747</v>
+        <v>0.8170846026494587</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8170846406822747</v>
+        <v>0.8170846026494587</v>
       </c>
       <c r="Q9" t="n">
         <v>8.176504897357097</v>
@@ -973,25 +973,25 @@
         <v>353.1819034850664</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1771608400649427</v>
+        <v>0.1771608097258834</v>
       </c>
       <c r="K10" t="n">
-        <v>-39.08328328904453</v>
+        <v>-39.08328325870547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N10" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O10" t="n">
-        <v>4.063074814450673</v>
+        <v>4.063075109797815</v>
       </c>
       <c r="P10" t="n">
-        <v>4.063074814450673</v>
+        <v>4.063075109797815</v>
       </c>
       <c r="Q10" t="n">
         <v>13.89472773347959</v>
@@ -1026,25 +1026,25 @@
         <v>492.0655559383053</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06414432160146788</v>
+        <v>0.0641440534448563</v>
       </c>
       <c r="K11" t="n">
-        <v>-42.19475656649943</v>
+        <v>-42.19475629834282</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N11" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9516015369957742</v>
+        <v>0.9516020701604688</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9516015369957742</v>
+        <v>0.9516020701604688</v>
       </c>
       <c r="Q11" t="n">
         <v>64.90986312907894</v>
@@ -1079,25 +1079,25 @@
         <v>414.720897416558</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.3320220648165133</v>
+        <v>-0.3320217617713936</v>
       </c>
       <c r="K12" t="n">
-        <v>-39.16593711885696</v>
+        <v>-39.16593742190208</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N12" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O12" t="n">
-        <v>3.980420984638243</v>
+        <v>3.980420946601207</v>
       </c>
       <c r="P12" t="n">
-        <v>3.980420984638243</v>
+        <v>3.980420946601207</v>
       </c>
       <c r="Q12" t="n">
         <v>8.143510196898255</v>
@@ -1132,25 +1132,25 @@
         <v>137.2236779642652</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1165794484141855</v>
+        <v>-0.1165792627271003</v>
       </c>
       <c r="K13" t="n">
-        <v>-46.25893075566745</v>
+        <v>-46.25893094135454</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N13" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.112572652172247</v>
+        <v>-3.112572572851249</v>
       </c>
       <c r="P13" t="n">
-        <v>3.112572652172247</v>
+        <v>3.112572572851249</v>
       </c>
       <c r="Q13" t="n">
         <v>14.79417749444066</v>
@@ -1185,25 +1185,25 @@
         <v>353.462421190674</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1772435557002581</v>
+        <v>0.1772435250698123</v>
       </c>
       <c r="K14" t="n">
-        <v>-47.08336600467985</v>
+        <v>-47.08336597404941</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N14" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.93700790118465</v>
+        <v>-3.937007605546121</v>
       </c>
       <c r="P14" t="n">
-        <v>3.93700790118465</v>
+        <v>3.937007605546121</v>
       </c>
       <c r="Q14" t="n">
         <v>14.16526535951992</v>
@@ -1238,25 +1238,25 @@
         <v>282.0474777604613</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1945682749880788</v>
+        <v>0.1945684053125234</v>
       </c>
       <c r="K15" t="n">
-        <v>-44.57007847906971</v>
+        <v>-44.57007860939416</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N15" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.423720375574511</v>
+        <v>-1.423720240890873</v>
       </c>
       <c r="P15" t="n">
-        <v>1.423720375574511</v>
+        <v>1.423720240890873</v>
       </c>
       <c r="Q15" t="n">
         <v>3.600775170412875</v>
@@ -1291,25 +1291,25 @@
         <v>347.8546034861743</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2501380816965266</v>
+        <v>0.2501382164255261</v>
       </c>
       <c r="K16" t="n">
-        <v>-43.54401563271693</v>
+        <v>-43.54401576744593</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N16" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3976575292217319</v>
+        <v>-0.3976573989426484</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3976575292217319</v>
+        <v>0.3976573989426484</v>
       </c>
       <c r="Q16" t="n">
         <v>9.459393539798503</v>
@@ -1344,25 +1344,25 @@
         <v>491.7480856953435</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06365956940862816</v>
+        <v>0.06365930143427789</v>
       </c>
       <c r="K17" t="n">
-        <v>-41.35753712042904</v>
+        <v>-41.35753685245469</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N17" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O17" t="n">
-        <v>1.788820983066167</v>
+        <v>1.7888215160486</v>
       </c>
       <c r="P17" t="n">
-        <v>1.788820983066167</v>
+        <v>1.7888215160486</v>
       </c>
       <c r="Q17" t="n">
         <v>64.26454844963175</v>
@@ -1397,25 +1397,25 @@
         <v>414.720588543647</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3319896554709914</v>
+        <v>-0.3319893522311403</v>
       </c>
       <c r="K18" t="n">
-        <v>-39.41086748738616</v>
+        <v>-39.41086779062601</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N18" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O18" t="n">
-        <v>3.735490616109047</v>
+        <v>3.735490577877279</v>
       </c>
       <c r="P18" t="n">
-        <v>3.735490616109047</v>
+        <v>3.735490577877279</v>
       </c>
       <c r="Q18" t="n">
         <v>8.129582823075639</v>
@@ -1450,25 +1450,25 @@
         <v>346.9828896722852</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1157536493538487</v>
+        <v>0.1157535664081522</v>
       </c>
       <c r="K19" t="n">
-        <v>-39.77697813914977</v>
+        <v>-39.77697805620407</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N19" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O19" t="n">
-        <v>3.369379964345434</v>
+        <v>3.369380312299214</v>
       </c>
       <c r="P19" t="n">
-        <v>3.369379964345434</v>
+        <v>3.369380312299214</v>
       </c>
       <c r="Q19" t="n">
         <v>3.207611980901587</v>
@@ -1503,25 +1503,25 @@
         <v>136.8252064669398</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1161979225954113</v>
+        <v>-0.1161977371532572</v>
       </c>
       <c r="K20" t="n">
-        <v>-45.87155717944541</v>
+        <v>-45.87155736488756</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N20" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.725199075950208</v>
+        <v>-2.725198996384279</v>
       </c>
       <c r="P20" t="n">
-        <v>2.725199075950208</v>
+        <v>2.725198996384279</v>
       </c>
       <c r="Q20" t="n">
         <v>14.26167088636916</v>
@@ -1556,25 +1556,25 @@
         <v>353.2738850162749</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1774754156863239</v>
+        <v>0.1774753856165319</v>
       </c>
       <c r="K21" t="n">
-        <v>-38.96114888507409</v>
+        <v>-38.9611488550043</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N21" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O21" t="n">
-        <v>4.185209218421114</v>
+        <v>4.18520951349899</v>
       </c>
       <c r="P21" t="n">
-        <v>4.185209218421114</v>
+        <v>4.18520951349899</v>
       </c>
       <c r="Q21" t="n">
         <v>13.61008879093758</v>
@@ -1609,25 +1609,25 @@
         <v>282.2397733177347</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1946658058523099</v>
+        <v>0.1946659359669951</v>
       </c>
       <c r="K22" t="n">
-        <v>-41.73344131605639</v>
+        <v>-41.73344144617108</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N22" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41291678743881</v>
+        <v>1.412916922332208</v>
       </c>
       <c r="P22" t="n">
-        <v>1.41291678743881</v>
+        <v>1.412916922332208</v>
       </c>
       <c r="Q22" t="n">
         <v>3.77481776552098</v>
@@ -1662,25 +1662,25 @@
         <v>347.7830592102688</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2501643742078414</v>
+        <v>0.2501645092951392</v>
       </c>
       <c r="K23" t="n">
-        <v>-42.54404192522825</v>
+        <v>-42.54404206031555</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02975121773014345</v>
+        <v>0.02975126425844146</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.03411910884093822</v>
+        <v>-0.03411907163725898</v>
       </c>
       <c r="N23" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6023161782669533</v>
+        <v>0.6023163081877385</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6023161782669533</v>
+        <v>0.6023163081877385</v>
       </c>
       <c r="Q23" t="n">
         <v>9.769738300107521</v>
@@ -1715,25 +1715,25 @@
         <v>492.4189560453001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1526748925365595</v>
+        <v>0.1526745716764069</v>
       </c>
       <c r="K24" t="n">
-        <v>-36.44655244355697</v>
+        <v>-36.44655212269682</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N24" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O24" t="n">
-        <v>1.238637650918001</v>
+        <v>1.238638291072547</v>
       </c>
       <c r="P24" t="n">
-        <v>1.238637650918001</v>
+        <v>1.238638291072547</v>
       </c>
       <c r="Q24" t="n">
         <v>64.62233772683842</v>
@@ -1768,25 +1768,25 @@
         <v>414.6521036900966</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5166865466029833</v>
+        <v>-0.5166861842148265</v>
       </c>
       <c r="K25" t="n">
-        <v>-38.43025222890722</v>
+        <v>-38.43025259129538</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N25" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.7450621344322457</v>
+        <v>-0.7450621775260089</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7450621344322457</v>
+        <v>0.7450621775260089</v>
       </c>
       <c r="Q25" t="n">
         <v>8.142715411928311</v>
@@ -1821,25 +1821,25 @@
         <v>121.9019340141352</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1518758235544624</v>
+        <v>-0.1518754129982156</v>
       </c>
       <c r="K26" t="n">
-        <v>-39.42771601318023</v>
+        <v>-39.42771642373648</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N26" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.742525918705255</v>
+        <v>-1.742526009967108</v>
       </c>
       <c r="P26" t="n">
-        <v>1.742525918705255</v>
+        <v>1.742526009967108</v>
       </c>
       <c r="Q26" t="n">
         <v>7.645873296118526</v>
@@ -1874,25 +1874,25 @@
         <v>282.1262635659829</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2247541638707986</v>
+        <v>0.2247543192119821</v>
       </c>
       <c r="K27" t="n">
-        <v>-39.76352967407488</v>
+        <v>-39.76352982941606</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N27" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.078339579599906</v>
+        <v>-2.078339415646695</v>
       </c>
       <c r="P27" t="n">
-        <v>2.078339579599906</v>
+        <v>2.078339415646695</v>
       </c>
       <c r="Q27" t="n">
         <v>3.697728322919315</v>
@@ -1927,25 +1927,25 @@
         <v>492.8220320110208</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1530665390320465</v>
+        <v>0.1530662177480266</v>
       </c>
       <c r="K28" t="n">
-        <v>-36.52857674311368</v>
+        <v>-36.52857642182966</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N28" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O28" t="n">
-        <v>1.156613351361294</v>
+        <v>1.156613991939707</v>
       </c>
       <c r="P28" t="n">
-        <v>1.156613351361294</v>
+        <v>1.156613991939707</v>
       </c>
       <c r="Q28" t="n">
         <v>65.01843776593944</v>
@@ -1980,25 +1980,25 @@
         <v>414.7800985705377</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.5168192002912946</v>
+        <v>-0.5168188380106926</v>
       </c>
       <c r="K29" t="n">
-        <v>-38.14440528950463</v>
+        <v>-38.14440565178523</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N29" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.4592151950296497</v>
+        <v>-0.4592152380158581</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4592151950296497</v>
+        <v>0.4592152380158581</v>
       </c>
       <c r="Q29" t="n">
         <v>8.004597832546528</v>
@@ -2033,25 +2033,25 @@
         <v>121.5478144023523</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1515041509065966</v>
+        <v>-0.1515037406608926</v>
       </c>
       <c r="K30" t="n">
-        <v>-39.34645503276688</v>
+        <v>-39.34645544301258</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N30" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O30" t="n">
-        <v>-1.6612649382919</v>
+        <v>-1.661265029243211</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6612649382919</v>
+        <v>1.661265029243211</v>
       </c>
       <c r="Q30" t="n">
         <v>7.282125705810897</v>
@@ -2086,25 +2086,25 @@
         <v>282.075552914966</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2246959570707503</v>
+        <v>0.2246961123964937</v>
       </c>
       <c r="K31" t="n">
-        <v>-39.72265514074422</v>
+        <v>-39.72265529606997</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N31" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O31" t="n">
-        <v>-2.037465046269247</v>
+        <v>-2.037464882300597</v>
       </c>
       <c r="P31" t="n">
-        <v>2.037465046269247</v>
+        <v>2.037464882300597</v>
       </c>
       <c r="Q31" t="n">
         <v>3.642530589404689</v>
@@ -2139,25 +2139,25 @@
         <v>348.287281945507</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2976082259181894</v>
+        <v>0.2976083861621959</v>
       </c>
       <c r="K32" t="n">
-        <v>-41.71393475653043</v>
+        <v>-41.71393491677444</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N32" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O32" t="n">
-        <v>-4.028744662055459</v>
+        <v>-4.028744503005072</v>
       </c>
       <c r="P32" t="n">
-        <v>4.028744662055459</v>
+        <v>4.028744503005072</v>
       </c>
       <c r="Q32" t="n">
         <v>9.576904387745506</v>
@@ -2192,25 +2192,25 @@
         <v>492.4998602135286</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1528388352283372</v>
+        <v>0.1528385143089466</v>
       </c>
       <c r="K33" t="n">
-        <v>-36.48753271277936</v>
+        <v>-36.48753239185996</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N33" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19765738169562</v>
+        <v>1.197658021909405</v>
       </c>
       <c r="P33" t="n">
-        <v>1.19765738169562</v>
+        <v>1.197658021909405</v>
       </c>
       <c r="Q33" t="n">
         <v>64.7766468620475</v>
@@ -2245,25 +2245,25 @@
         <v>414.7101038235268</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.516747717986064</v>
+        <v>-0.5167473556111091</v>
       </c>
       <c r="K34" t="n">
-        <v>-38.47100738405476</v>
+        <v>-38.47100774642971</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N34" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.7858172895797821</v>
+        <v>-0.7858173326603435</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7858172895797821</v>
+        <v>0.7858173326603435</v>
       </c>
       <c r="Q34" t="n">
         <v>8.108186965681963</v>
@@ -2298,25 +2298,25 @@
         <v>121.45488369655</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.151319586338964</v>
+        <v>-0.151319176122108</v>
       </c>
       <c r="K35" t="n">
-        <v>-39.34663959733451</v>
+        <v>-39.34664000755136</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N35" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.661449502859533</v>
+        <v>-1.661449593781995</v>
       </c>
       <c r="P35" t="n">
-        <v>1.661449502859533</v>
+        <v>1.661449593781995</v>
       </c>
       <c r="Q35" t="n">
         <v>7.111164073073548</v>
@@ -2351,25 +2351,25 @@
         <v>281.8542137438631</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2244598210150315</v>
+        <v>0.2244599764185793</v>
       </c>
       <c r="K36" t="n">
-        <v>-42.64078635162728</v>
+        <v>-42.64078650703082</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N36" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O36" t="n">
-        <v>-4.955596257152301</v>
+        <v>-4.955596093261455</v>
       </c>
       <c r="P36" t="n">
-        <v>4.955596257152301</v>
+        <v>4.955596093261455</v>
       </c>
       <c r="Q36" t="n">
         <v>3.422164509879688</v>
@@ -2404,25 +2404,25 @@
         <v>348.1532651399654</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2974855568225721</v>
+        <v>0.2974857175167287</v>
       </c>
       <c r="K37" t="n">
-        <v>-41.91789372008788</v>
+        <v>-41.91789388078204</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02759793962695093</v>
+        <v>0.02759799512100167</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.05464225125948969</v>
+        <v>-0.05464220677843277</v>
       </c>
       <c r="N37" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="O37" t="n">
-        <v>-4.232703625612906</v>
+        <v>-4.232703467012669</v>
       </c>
       <c r="P37" t="n">
-        <v>4.232703625612906</v>
+        <v>4.232703467012669</v>
       </c>
       <c r="Q37" t="n">
         <v>9.865226728056387</v>
@@ -2457,25 +2457,25 @@
         <v>492.740166926348</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1408665602113004</v>
+        <v>0.1408643440206134</v>
       </c>
       <c r="K38" t="n">
-        <v>-31.76127472347661</v>
+        <v>-31.76127250728592</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N38" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22260560889351</v>
+        <v>1.222610012366331</v>
       </c>
       <c r="P38" t="n">
-        <v>1.22260560889351</v>
+        <v>1.222610012366331</v>
       </c>
       <c r="Q38" t="n">
         <v>65.00045762115185</v>
@@ -2510,25 +2510,25 @@
         <v>414.7420998925275</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.454601733892396</v>
+        <v>-0.4545992452083993</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.96172479671984</v>
+        <v>-33.96172728540384</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N39" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.9778444643497224</v>
+        <v>-0.9778447657515841</v>
       </c>
       <c r="P39" t="n">
-        <v>0.9778444643497224</v>
+        <v>0.9778447657515841</v>
       </c>
       <c r="Q39" t="n">
         <v>8.066385775123893</v>
@@ -2563,25 +2563,25 @@
         <v>281.6388850701053</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1881481247433001</v>
+        <v>0.1881492074076903</v>
       </c>
       <c r="K40" t="n">
-        <v>-34.89018894106983</v>
+        <v>-34.89019002373422</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N40" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.90630860869971</v>
+        <v>-1.906307504081965</v>
       </c>
       <c r="P40" t="n">
-        <v>1.90630860869971</v>
+        <v>1.906307504081965</v>
       </c>
       <c r="Q40" t="n">
         <v>3.204076838791523</v>
@@ -2616,25 +2616,25 @@
         <v>492.5740732020875</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1408753551656829</v>
+        <v>0.1408731405597123</v>
       </c>
       <c r="K41" t="n">
-        <v>-32.00618147761466</v>
+        <v>-32.00617926300869</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N41" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9776988547554595</v>
+        <v>0.9777032566435651</v>
       </c>
       <c r="P41" t="n">
-        <v>0.9776988547554595</v>
+        <v>0.9777032566435651</v>
       </c>
       <c r="Q41" t="n">
         <v>64.99467499702425</v>
@@ -2669,25 +2669,25 @@
         <v>414.7142618968417</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.4545882066379718</v>
+        <v>-0.454585716448193</v>
       </c>
       <c r="K42" t="n">
-        <v>-34.00255465050489</v>
+        <v>-34.00255714069467</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N42" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.018674318134771</v>
+        <v>-1.018674621042415</v>
       </c>
       <c r="P42" t="n">
-        <v>1.018674318134771</v>
+        <v>1.018674621042415</v>
       </c>
       <c r="Q42" t="n">
         <v>8.209472411476824</v>
@@ -2722,25 +2722,25 @@
         <v>281.7673892022045</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1882666815671783</v>
+        <v>0.1882677638734762</v>
       </c>
       <c r="K43" t="n">
-        <v>-36.31887892646514</v>
+        <v>-36.31888000877144</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N43" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O43" t="n">
-        <v>-3.334998594095019</v>
+        <v>-3.334997489119182</v>
       </c>
       <c r="P43" t="n">
-        <v>3.334998594095019</v>
+        <v>3.334997489119182</v>
       </c>
       <c r="Q43" t="n">
         <v>3.330963309983823</v>
@@ -2775,25 +2775,25 @@
         <v>492.7613518990831</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1411114559504725</v>
+        <v>0.1411092401749201</v>
       </c>
       <c r="K44" t="n">
-        <v>-31.76151961921578</v>
+        <v>-31.76151740344023</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N44" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O44" t="n">
-        <v>1.222360713154337</v>
+        <v>1.222365116212025</v>
       </c>
       <c r="P44" t="n">
-        <v>1.222360713154337</v>
+        <v>1.222365116212025</v>
       </c>
       <c r="Q44" t="n">
         <v>65.25486253147257</v>
@@ -2828,25 +2828,25 @@
         <v>414.8096023640401</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4546685682304457</v>
+        <v>-0.4546660788818642</v>
       </c>
       <c r="K45" t="n">
-        <v>-34.00247428891242</v>
+        <v>-34.002476778261</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0220991171797092</v>
+        <v>0.02209950191358727</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.04824725395029179</v>
+        <v>-0.04824694814205194</v>
       </c>
       <c r="N45" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.018593956542297</v>
+        <v>-1.018594258608744</v>
       </c>
       <c r="P45" t="n">
-        <v>1.018593956542297</v>
+        <v>1.018594258608744</v>
       </c>
       <c r="Q45" t="n">
         <v>8.115789169036015</v>
@@ -2881,25 +2881,25 @@
         <v>492.5885484737794</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1810510107885364</v>
+        <v>0.1810442455064916</v>
       </c>
       <c r="K46" t="n">
-        <v>-27.88309182711507</v>
+        <v>-27.88308506183302</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01600227698155643</v>
+        <v>0.01600344891941214</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.05433348849215153</v>
+        <v>-0.05433255226452423</v>
       </c>
       <c r="N46" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5268639376332622</v>
+        <v>0.5268773785754384</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5268639376332622</v>
+        <v>0.5268773785754384</v>
       </c>
       <c r="Q46" t="n">
         <v>65.02469238699081</v>
@@ -2934,25 +2934,25 @@
         <v>345.7814467409238</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1815658454769995</v>
+        <v>0.1815658683900949</v>
       </c>
       <c r="K47" t="n">
-        <v>-26.80197400874231</v>
+        <v>-26.8019740316554</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01384439560607732</v>
+        <v>0.01384438262204494</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.05995685834723148</v>
+        <v>-0.05995686877634833</v>
       </c>
       <c r="N47" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="O47" t="n">
-        <v>-3.934276600606992</v>
+        <v>-3.934276697650766</v>
       </c>
       <c r="P47" t="n">
-        <v>3.934276600606992</v>
+        <v>3.934276697650766</v>
       </c>
       <c r="Q47" t="n">
         <v>3.370315466686673</v>
@@ -2987,25 +2987,25 @@
         <v>272.6121120913526</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.05519186097449591</v>
+        <v>-0.05519186331424564</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.11623671045407</v>
+        <v>-17.11623670811433</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N48" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O48" t="n">
-        <v>1.088967258017071</v>
+        <v>1.088967257272984</v>
       </c>
       <c r="P48" t="n">
-        <v>1.088967258017071</v>
+        <v>1.088967257272984</v>
       </c>
       <c r="Q48" t="n">
         <v>4.46098146089248</v>
@@ -3040,28 +3040,28 @@
         <v>272.5791814214417</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.05517924260869478</v>
+        <v>-0.0551792449484978</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.11624932881988</v>
+        <v>-17.11624932648007</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N49" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O49" t="n">
-        <v>1.08895463965127</v>
+        <v>1.088954638907236</v>
       </c>
       <c r="P49" t="n">
-        <v>1.08895463965127</v>
+        <v>1.088954638907236</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.428199195047791</v>
+        <v>4.42819919504779</v>
       </c>
     </row>
     <row r="50">
@@ -3093,25 +3093,25 @@
         <v>203.0214763876526</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.02563237488276471</v>
+        <v>-0.02563237557120246</v>
       </c>
       <c r="K50" t="n">
-        <v>-18.67640844144377</v>
+        <v>-18.67640844075533</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N50" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.4712044729726195</v>
+        <v>-0.4712044753680189</v>
       </c>
       <c r="P50" t="n">
-        <v>0.4712044729726195</v>
+        <v>0.4712044753680189</v>
       </c>
       <c r="Q50" t="n">
         <v>58.29299349805837</v>
@@ -3146,25 +3146,25 @@
         <v>272.6566049311037</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0552138436166878</v>
+        <v>-0.05521384595595791</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.07539840128127</v>
+        <v>-17.075398398942</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.005241923893179587</v>
+        <v>-0.005241924419618858</v>
       </c>
       <c r="M51" t="n">
-        <v>0.02237965398160556</v>
+        <v>0.02237965355604346</v>
       </c>
       <c r="N51" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="O51" t="n">
-        <v>1.129805567189873</v>
+        <v>1.129805566445306</v>
       </c>
       <c r="P51" t="n">
-        <v>1.129805567189873</v>
+        <v>1.129805566445306</v>
       </c>
       <c r="Q51" t="n">
         <v>4.503696395340075</v>
@@ -3199,25 +3199,25 @@
         <v>342.6463985323942</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.1192063501966771</v>
+        <v>-0.1192063667276315</v>
       </c>
       <c r="K52" t="n">
-        <v>-10.86854875184414</v>
+        <v>-10.86854873531318</v>
       </c>
       <c r="L52" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M52" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N52" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O52" t="n">
-        <v>2.666833556842532</v>
+        <v>2.666833626419566</v>
       </c>
       <c r="P52" t="n">
-        <v>2.666833556842532</v>
+        <v>2.666833626419566</v>
       </c>
       <c r="Q52" t="n">
         <v>5.78438697303368</v>
@@ -3252,25 +3252,25 @@
         <v>272.7027648012388</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.03893546427085504</v>
+        <v>-0.03893543039437297</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.29575841328016</v>
+        <v>-13.29575844715665</v>
       </c>
       <c r="L53" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N53" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O53" t="n">
-        <v>0.2396238954065062</v>
+        <v>0.2396239145761037</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2396238954065062</v>
+        <v>0.2396239145761037</v>
       </c>
       <c r="Q53" t="n">
         <v>4.552811248249983</v>
@@ -3305,25 +3305,25 @@
         <v>342.6468721468077</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.1192008700121949</v>
+        <v>-0.1192008865453129</v>
       </c>
       <c r="K54" t="n">
-        <v>-10.90937055855924</v>
+        <v>-10.90937054202612</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N54" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O54" t="n">
-        <v>2.626011750127432</v>
+        <v>2.62601181970663</v>
       </c>
       <c r="P54" t="n">
-        <v>2.626011750127432</v>
+        <v>2.62601181970663</v>
       </c>
       <c r="Q54" t="n">
         <v>5.794187309304205</v>
@@ -3358,25 +3358,25 @@
         <v>201.785778139292</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.0249494095188183</v>
+        <v>-0.02494939965090204</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.84035671293017</v>
+        <v>-12.84035672279808</v>
       </c>
       <c r="L55" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N55" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O55" t="n">
-        <v>0.695025595756503</v>
+        <v>0.6950256389346663</v>
       </c>
       <c r="P55" t="n">
-        <v>0.695025595756503</v>
+        <v>0.6950256389346663</v>
       </c>
       <c r="Q55" t="n">
         <v>59.58319618756961</v>
@@ -3411,25 +3411,25 @@
         <v>272.689386147137</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.03893656640834742</v>
+        <v>-0.03893653253522622</v>
       </c>
       <c r="K56" t="n">
-        <v>-13.29575731114267</v>
+        <v>-13.29575734501579</v>
       </c>
       <c r="L56" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N56" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O56" t="n">
-        <v>0.2396249975439986</v>
+        <v>0.2396250167169569</v>
       </c>
       <c r="P56" t="n">
-        <v>0.2396249975439986</v>
+        <v>0.2396250167169569</v>
       </c>
       <c r="Q56" t="n">
         <v>4.538381752788578</v>
@@ -3464,25 +3464,25 @@
         <v>342.6334350423106</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.1192006566154387</v>
+        <v>-0.1192006731429593</v>
       </c>
       <c r="K57" t="n">
-        <v>-10.9501870984866</v>
+        <v>-10.95018708195908</v>
       </c>
       <c r="L57" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N57" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O57" t="n">
-        <v>2.585195210200066</v>
+        <v>2.585195279773666</v>
       </c>
       <c r="P57" t="n">
-        <v>2.585195210200066</v>
+        <v>2.585195279773666</v>
       </c>
       <c r="Q57" t="n">
         <v>5.790302474001024</v>
@@ -3517,25 +3517,25 @@
         <v>201.8102971054708</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.02505857477686213</v>
+        <v>-0.02505856484418345</v>
       </c>
       <c r="K58" t="n">
-        <v>-17.06473734359049</v>
+        <v>-17.06473735352317</v>
       </c>
       <c r="L58" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N58" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.529355034903817</v>
+        <v>-3.529354991790418</v>
       </c>
       <c r="P58" t="n">
-        <v>3.529355034903817</v>
+        <v>3.529354991790418</v>
       </c>
       <c r="Q58" t="n">
         <v>60.11081773128225</v>
@@ -3570,25 +3570,25 @@
         <v>272.660986483105</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.03890184240349903</v>
+        <v>-0.03890180852200764</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.2141593820863</v>
+        <v>-13.21415941596779</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002177178307251637</v>
+        <v>0.002177186210153733</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04229333118849485</v>
+        <v>0.04229333861998344</v>
       </c>
       <c r="N59" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3212229266003703</v>
+        <v>0.3212229457649585</v>
       </c>
       <c r="P59" t="n">
-        <v>0.3212229266003703</v>
+        <v>0.3212229457649585</v>
       </c>
       <c r="Q59" t="n">
         <v>4.512271427517133</v>
@@ -3623,25 +3623,25 @@
         <v>202.0564894247832</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.09969429220740977</v>
+        <v>-0.0996944052575941</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.398264891466063</v>
+        <v>-6.398264778415879</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N60" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O60" t="n">
-        <v>2.014102089595472</v>
+        <v>2.014101313495209</v>
       </c>
       <c r="P60" t="n">
-        <v>2.014102089595472</v>
+        <v>2.014101313495209</v>
       </c>
       <c r="Q60" t="n">
         <v>59.55094419706982</v>
@@ -3676,25 +3676,25 @@
         <v>272.4719246597481</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.195664562581392</v>
+        <v>-0.1956649866627007</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.669641559867593</v>
+        <v>-8.669641135786284</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N61" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.257274578806058</v>
+        <v>-0.2572750438751967</v>
       </c>
       <c r="P61" t="n">
-        <v>0.257274578806058</v>
+        <v>0.2572750438751967</v>
       </c>
       <c r="Q61" t="n">
         <v>4.331662584311538</v>
@@ -3729,25 +3729,25 @@
         <v>201.7880712179627</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.09902373801911324</v>
+        <v>-0.09902385145707271</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.235670139531905</v>
+        <v>-7.235670026093945</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N62" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O62" t="n">
-        <v>1.17669684152963</v>
+        <v>1.176696065817142</v>
       </c>
       <c r="P62" t="n">
-        <v>1.17669684152963</v>
+        <v>1.176696065817142</v>
       </c>
       <c r="Q62" t="n">
         <v>59.50194840100855</v>
@@ -3782,25 +3782,25 @@
         <v>343.6331698279389</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.0950425261303085</v>
+        <v>-0.09504337933117668</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.688630943257456</v>
+        <v>-7.688630090056588</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N63" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O63" t="n">
-        <v>0.7237360378040787</v>
+        <v>0.7237360018544994</v>
       </c>
       <c r="P63" t="n">
-        <v>0.7237360378040787</v>
+        <v>0.7237360018544994</v>
       </c>
       <c r="Q63" t="n">
         <v>7.998207240144608</v>
@@ -3835,25 +3835,25 @@
         <v>201.4941195742618</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.09839543054613742</v>
+        <v>-0.09839554461444777</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.440380079657945</v>
+        <v>-6.440379965589635</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N64" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O64" t="n">
-        <v>1.971986901403589</v>
+        <v>1.971986126321452</v>
       </c>
       <c r="P64" t="n">
-        <v>1.971986901403589</v>
+        <v>1.971986126321452</v>
       </c>
       <c r="Q64" t="n">
         <v>59.58126265354454</v>
@@ -3888,25 +3888,25 @@
         <v>272.4899265604212</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.1956869946264135</v>
+        <v>-0.1956874187195279</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.669619127822571</v>
+        <v>-8.669618703729457</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.01106727985948869</v>
+        <v>-0.0110673867745633</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1136203481625151</v>
+        <v>0.1136202186356222</v>
       </c>
       <c r="N65" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.2572521467610365</v>
+        <v>-0.2572526118183696</v>
       </c>
       <c r="P65" t="n">
-        <v>0.2572521467610365</v>
+        <v>0.2572526118183696</v>
       </c>
       <c r="Q65" t="n">
         <v>4.350423607136873</v>
@@ -3941,28 +3941,28 @@
         <v>341.3599411962555</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.4583874994659718</v>
+        <v>-0.4583875007617593</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.202836990329948</v>
+        <v>-5.202836989034161</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N66" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.040721117373013</v>
+        <v>-1.040721113243894</v>
       </c>
       <c r="P66" t="n">
-        <v>1.040721117373013</v>
+        <v>1.040721113243894</v>
       </c>
       <c r="Q66" t="n">
-        <v>6.9435542474206</v>
+        <v>6.943554247420601</v>
       </c>
     </row>
     <row r="67">
@@ -3994,25 +3994,25 @@
         <v>201.840092499965</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.1841186727923398</v>
+        <v>-0.1841186724604098</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2779962238127451</v>
+        <v>0.2779962234808151</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N67" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O67" t="n">
-        <v>4.44011209676968</v>
+        <v>4.440112099271082</v>
       </c>
       <c r="P67" t="n">
-        <v>4.44011209676968</v>
+        <v>4.440112099271082</v>
       </c>
       <c r="Q67" t="n">
         <v>59.78826068652437</v>
@@ -4047,25 +4047,25 @@
         <v>339.9741471115726</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.4545032967893565</v>
+        <v>-0.4545032980711046</v>
       </c>
       <c r="K68" t="n">
-        <v>-5.165904866475953</v>
+        <v>-5.165904865194205</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N68" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O68" t="n">
-        <v>-1.003788993519018</v>
+        <v>-1.003788989403938</v>
       </c>
       <c r="P68" t="n">
-        <v>1.003788993519018</v>
+        <v>1.003788989403938</v>
       </c>
       <c r="Q68" t="n">
         <v>6.487206808987555</v>
@@ -4100,25 +4100,25 @@
         <v>201.7362194597296</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.1837240690484334</v>
+        <v>-0.1837240687158319</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.2326024615638049</v>
+        <v>-0.2326024618964064</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N69" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O69" t="n">
-        <v>3.92951341139313</v>
+        <v>3.929513413893861</v>
       </c>
       <c r="P69" t="n">
-        <v>3.92951341139313</v>
+        <v>3.929513413893861</v>
       </c>
       <c r="Q69" t="n">
         <v>59.76155212152379</v>
@@ -4153,25 +4153,25 @@
         <v>375.2434473227402</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.3551453994982756</v>
+        <v>-0.3551453962746631</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.306079090297644</v>
+        <v>-4.306079093521257</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N70" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.1439632173407093</v>
+        <v>-0.14396321773099</v>
       </c>
       <c r="P70" t="n">
-        <v>0.1439632173407093</v>
+        <v>0.14396321773099</v>
       </c>
       <c r="Q70" t="n">
         <v>4.578631406829086</v>
@@ -4206,25 +4206,25 @@
         <v>341.3858524398695</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.4584576990556535</v>
+        <v>-0.4584577003517074</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.161950464209657</v>
+        <v>-5.161950462913603</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N71" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.9998345912527213</v>
+        <v>-0.9998345871233356</v>
       </c>
       <c r="P71" t="n">
-        <v>0.9998345912527213</v>
+        <v>0.9998345871233356</v>
       </c>
       <c r="Q71" t="n">
         <v>6.916620368102998</v>
@@ -4259,25 +4259,25 @@
         <v>201.7643601895811</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.1837400062228873</v>
+        <v>-0.1837400058907432</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.2734028509199611</v>
+        <v>-0.2734028512521052</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.04125131181063169</v>
+        <v>-0.04125131144133461</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1533494369115584</v>
+        <v>0.153349437447615</v>
       </c>
       <c r="N72" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="O72" t="n">
-        <v>3.888713022036974</v>
+        <v>3.888713024538162</v>
       </c>
       <c r="P72" t="n">
-        <v>3.888713022036974</v>
+        <v>3.888713024538162</v>
       </c>
       <c r="Q72" t="n">
         <v>59.7132214315432</v>
@@ -4312,25 +4312,25 @@
         <v>201.6862739439146</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03676358887317699</v>
+        <v>0.036763574699052</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0571139621472283</v>
+        <v>0.05711397632135329</v>
       </c>
       <c r="L73" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N73" t="n">
         <v>1.5</v>
       </c>
       <c r="O73" t="n">
-        <v>-1.442886037852772</v>
+        <v>-1.442886023678647</v>
       </c>
       <c r="P73" t="n">
-        <v>1.442886037852772</v>
+        <v>1.442886023678647</v>
       </c>
       <c r="Q73" t="n">
         <v>59.80431426893682</v>
@@ -4365,25 +4365,25 @@
         <v>344.5556701670137</v>
       </c>
       <c r="J74" t="n">
-        <v>0.01985570872207765</v>
+        <v>0.01985562602293989</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.04842713729350967</v>
+        <v>-0.04842705459437191</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
       <c r="O74" t="n">
-        <v>-1.54842713729351</v>
+        <v>-1.548427054594372</v>
       </c>
       <c r="P74" t="n">
-        <v>1.54842713729351</v>
+        <v>1.548427054594372</v>
       </c>
       <c r="Q74" t="n">
         <v>5.588633066647377</v>
@@ -4418,25 +4418,25 @@
         <v>201.7264702905462</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03680567813459978</v>
+        <v>0.03680566396198248</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.1266015965019505</v>
+        <v>-0.1266015823293332</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N75" t="n">
         <v>1.5</v>
       </c>
       <c r="O75" t="n">
-        <v>-1.62660159650195</v>
+        <v>-1.626601582329333</v>
       </c>
       <c r="P75" t="n">
-        <v>1.62660159650195</v>
+        <v>1.626601582329333</v>
       </c>
       <c r="Q75" t="n">
         <v>59.81381167832081</v>
@@ -4471,25 +4471,25 @@
         <v>413.3846036555638</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.4422235045263765</v>
+        <v>-0.4422235714054255</v>
       </c>
       <c r="K76" t="n">
-        <v>1.495284729016172</v>
+        <v>1.495284795895221</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N76" t="n">
         <v>1.5</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.00471527098382829</v>
+        <v>-0.004715204104779325</v>
       </c>
       <c r="P76" t="n">
-        <v>0.00471527098382829</v>
+        <v>0.004715204104779325</v>
       </c>
       <c r="Q76" t="n">
         <v>4.206247378649035</v>
@@ -4524,25 +4524,25 @@
         <v>201.6441472124423</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03673014223082793</v>
+        <v>0.03673012804854503</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.2081587136593988</v>
+        <v>-0.2081586994771158</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N77" t="n">
         <v>1.5</v>
       </c>
       <c r="O77" t="n">
-        <v>-1.708158713659399</v>
+        <v>-1.708158699477116</v>
       </c>
       <c r="P77" t="n">
-        <v>1.708158713659399</v>
+        <v>1.708158699477116</v>
       </c>
       <c r="Q77" t="n">
         <v>59.83189105391106</v>
@@ -4577,25 +4577,25 @@
         <v>271.8313574568668</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06732640449891081</v>
+        <v>0.067326357862453</v>
       </c>
       <c r="K78" t="n">
-        <v>1.312265432235779</v>
+        <v>1.312265478872237</v>
       </c>
       <c r="L78" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N78" t="n">
         <v>1.5</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.1877345677642208</v>
+        <v>-0.187734521127763</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1877345677642208</v>
+        <v>0.187734521127763</v>
       </c>
       <c r="Q78" t="n">
         <v>3.702213673340544</v>
@@ -4630,25 +4630,25 @@
         <v>344.6172749340896</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02003505709878617</v>
+        <v>0.02003497443803681</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.007790159139601016</v>
+        <v>-0.00779007647885166</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001824256428774094</v>
+        <v>0.001824246026339874</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.04849803204074326</v>
+        <v>-0.048498040166522</v>
       </c>
       <c r="N79" t="n">
         <v>1.5</v>
       </c>
       <c r="O79" t="n">
-        <v>-1.507790159139601</v>
+        <v>-1.507790076478852</v>
       </c>
       <c r="P79" t="n">
-        <v>1.507790159139601</v>
+        <v>1.507790076478852</v>
       </c>
       <c r="Q79" t="n">
         <v>5.449056980381121</v>
@@ -4683,25 +4683,25 @@
         <v>341.7838070489366</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1834814359742287</v>
+        <v>0.1834816378687147</v>
       </c>
       <c r="K80" t="n">
-        <v>5.359375706882923</v>
+        <v>5.359375504988437</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N80" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O80" t="n">
-        <v>-1.524214169585377</v>
+        <v>-1.524215067367578</v>
       </c>
       <c r="P80" t="n">
-        <v>1.524214169585377</v>
+        <v>1.524215067367578</v>
       </c>
       <c r="Q80" t="n">
         <v>6.527374093457546</v>
@@ -4736,25 +4736,25 @@
         <v>201.9007214072739</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02667687735848023</v>
+        <v>0.02667670546918455</v>
       </c>
       <c r="K81" t="n">
-        <v>5.026384347131315</v>
+        <v>5.026384519020611</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N81" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O81" t="n">
-        <v>-1.857205529336985</v>
+        <v>-1.857206053335404</v>
       </c>
       <c r="P81" t="n">
-        <v>1.857205529336985</v>
+        <v>1.857206053335404</v>
       </c>
       <c r="Q81" t="n">
         <v>59.52252569278897</v>
@@ -4789,25 +4789,25 @@
         <v>347.040879096737</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1367668854333015</v>
+        <v>0.1367665148677562</v>
       </c>
       <c r="K82" t="n">
-        <v>5.120375971709544</v>
+        <v>5.120376342275089</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N82" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O82" t="n">
-        <v>-1.763213904758756</v>
+        <v>-1.763214230080925</v>
       </c>
       <c r="P82" t="n">
-        <v>1.763213904758756</v>
+        <v>1.763214230080925</v>
       </c>
       <c r="Q82" t="n">
         <v>7.51953684542746</v>
@@ -4842,28 +4842,28 @@
         <v>344.7612419665435</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.07501771136745106</v>
+        <v>-0.07501871540342453</v>
       </c>
       <c r="K83" t="n">
-        <v>5.372976895040921</v>
+        <v>5.372977899076894</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N83" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O83" t="n">
-        <v>-1.510612981427379</v>
+        <v>-1.510612673279121</v>
       </c>
       <c r="P83" t="n">
-        <v>1.510612981427379</v>
+        <v>1.510612673279121</v>
       </c>
       <c r="Q83" t="n">
-        <v>5.663834767029739</v>
+        <v>5.66383476702974</v>
       </c>
     </row>
     <row r="84">
@@ -4895,25 +4895,25 @@
         <v>341.409015338787</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1830091926156694</v>
+        <v>0.1830093938472084</v>
       </c>
       <c r="K84" t="n">
-        <v>5.400664276772092</v>
+        <v>5.400664075540553</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N84" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O84" t="n">
-        <v>-1.482925599696208</v>
+        <v>-1.482926496815462</v>
       </c>
       <c r="P84" t="n">
-        <v>1.482925599696208</v>
+        <v>1.482926496815462</v>
       </c>
       <c r="Q84" t="n">
         <v>6.933708295135046</v>
@@ -4948,25 +4948,25 @@
         <v>201.606582383026</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02633711222336466</v>
+        <v>0.02633693959067518</v>
       </c>
       <c r="K85" t="n">
-        <v>4.271622071450105</v>
+        <v>4.271622244082795</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N85" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O85" t="n">
-        <v>-2.611967805018195</v>
+        <v>-2.61196832827322</v>
       </c>
       <c r="P85" t="n">
-        <v>2.611967805018195</v>
+        <v>2.61196832827322</v>
       </c>
       <c r="Q85" t="n">
         <v>59.74166093467606</v>
@@ -5001,25 +5001,25 @@
         <v>346.4728871901609</v>
       </c>
       <c r="J86" t="n">
-        <v>0.137156580693679</v>
+        <v>0.1371562138816405</v>
       </c>
       <c r="K86" t="n">
-        <v>4.997537296857336</v>
+        <v>4.997537663669375</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N86" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O86" t="n">
-        <v>-1.886052579610964</v>
+        <v>-1.88605290868664</v>
       </c>
       <c r="P86" t="n">
-        <v>1.886052579610964</v>
+        <v>1.88605290868664</v>
       </c>
       <c r="Q86" t="n">
         <v>5.903529699840212</v>
@@ -5054,25 +5054,25 @@
         <v>345.0643530459349</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.07284157736594299</v>
+        <v>-0.07284257703451846</v>
       </c>
       <c r="K87" t="n">
-        <v>5.329984434508789</v>
+        <v>5.329985434177364</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N87" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O87" t="n">
-        <v>-1.553605441959512</v>
+        <v>-1.553605138178651</v>
       </c>
       <c r="P87" t="n">
-        <v>1.553605441959512</v>
+        <v>1.553605138178651</v>
       </c>
       <c r="Q87" t="n">
         <v>4.511753580676586</v>
@@ -5107,25 +5107,25 @@
         <v>341.31084240704</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1828891140143867</v>
+        <v>0.1828893150513942</v>
       </c>
       <c r="K88" t="n">
-        <v>5.359968028842765</v>
+        <v>5.359967827805757</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N88" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O88" t="n">
-        <v>-1.523621847625535</v>
+        <v>-1.523622744550257</v>
       </c>
       <c r="P88" t="n">
-        <v>1.523621847625535</v>
+        <v>1.523622744550257</v>
       </c>
       <c r="Q88" t="n">
         <v>7.035338606467948</v>
@@ -5160,25 +5160,25 @@
         <v>201.6905147161951</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02643712898883877</v>
+        <v>0.02643695651696376</v>
       </c>
       <c r="K89" t="n">
-        <v>5.026624095500956</v>
+        <v>5.026624267972831</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N89" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O89" t="n">
-        <v>-1.856965780967344</v>
+        <v>-1.856966304383183</v>
       </c>
       <c r="P89" t="n">
-        <v>1.856965780967344</v>
+        <v>1.856966304383183</v>
       </c>
       <c r="Q89" t="n">
         <v>59.70308813087207</v>
@@ -5213,25 +5213,25 @@
         <v>346.9274105289595</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1368749238451086</v>
+        <v>0.1368745541578811</v>
       </c>
       <c r="K90" t="n">
-        <v>5.120267933297737</v>
+        <v>5.120268302984964</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N90" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O90" t="n">
-        <v>-1.763321943170563</v>
+        <v>-1.76332226937105</v>
       </c>
       <c r="P90" t="n">
-        <v>1.763321943170563</v>
+        <v>1.76332226937105</v>
       </c>
       <c r="Q90" t="n">
         <v>7.14928756139775</v>
@@ -5266,25 +5266,25 @@
         <v>272.5767300768777</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02445984814831714</v>
+        <v>0.0244592811879798</v>
       </c>
       <c r="K91" t="n">
-        <v>5.640846274300665</v>
+        <v>5.640846841261002</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N91" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O91" t="n">
-        <v>-1.242743602167636</v>
+        <v>-1.242743731095013</v>
       </c>
       <c r="P91" t="n">
-        <v>1.242743602167636</v>
+        <v>1.242743731095013</v>
       </c>
       <c r="Q91" t="n">
         <v>4.439096089906753</v>
@@ -5319,25 +5319,25 @@
         <v>343.7183180616155</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.08015452856550009</v>
+        <v>-0.0801555421669562</v>
       </c>
       <c r="K92" t="n">
-        <v>5.45974636530019</v>
+        <v>5.459747378901646</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.01024680555722295</v>
+        <v>-0.01024693182467449</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.06685340266617117</v>
+        <v>-0.06685350036283531</v>
       </c>
       <c r="N92" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="O92" t="n">
-        <v>-1.42384351116811</v>
+        <v>-1.423843193454369</v>
       </c>
       <c r="P92" t="n">
-        <v>1.42384351116811</v>
+        <v>1.423843193454369</v>
       </c>
       <c r="Q92" t="n">
         <v>9.141657999578101</v>
@@ -5372,25 +5372,25 @@
         <v>415.9210071112147</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.5337317215282216</v>
+        <v>-0.5337302053686805</v>
       </c>
       <c r="K93" t="n">
-        <v>8.158221517446593</v>
+        <v>8.158220001287052</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N93" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O93" t="n">
-        <v>-4.136006079765446</v>
+        <v>-4.136006267800676</v>
       </c>
       <c r="P93" t="n">
-        <v>4.136006079765446</v>
+        <v>4.136006267800676</v>
       </c>
       <c r="Q93" t="n">
         <v>6.391302101400909</v>
@@ -5425,25 +5425,25 @@
         <v>342.7395431362294</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1649724682978881</v>
+        <v>0.1649720735365818</v>
       </c>
       <c r="K94" t="n">
-        <v>10.58196630721231</v>
+        <v>10.58196670197362</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N94" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O94" t="n">
-        <v>-1.712261289999725</v>
+        <v>-1.712259567114108</v>
       </c>
       <c r="P94" t="n">
-        <v>1.712261289999725</v>
+        <v>1.712259567114108</v>
       </c>
       <c r="Q94" t="n">
         <v>5.642816429576273</v>
@@ -5478,25 +5478,25 @@
         <v>347.6792783476744</v>
       </c>
       <c r="J95" t="n">
-        <v>0.130388095522914</v>
+        <v>0.1303887791354619</v>
       </c>
       <c r="K95" t="n">
-        <v>10.0043057820281</v>
+        <v>10.00430509841555</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N95" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O95" t="n">
-        <v>-2.289921815183938</v>
+        <v>-2.289921170672175</v>
       </c>
       <c r="P95" t="n">
-        <v>2.289921815183938</v>
+        <v>2.289921170672175</v>
       </c>
       <c r="Q95" t="n">
         <v>8.757678395674644</v>
@@ -5531,25 +5531,25 @@
         <v>273.0170594273967</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03151524435394926</v>
+        <v>0.03151629735515904</v>
       </c>
       <c r="K96" t="n">
-        <v>12.2256276127889</v>
+        <v>12.22562655978769</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N96" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.06859998442314286</v>
+        <v>-0.06859970930004167</v>
       </c>
       <c r="P96" t="n">
-        <v>0.06859998442314286</v>
+        <v>0.06859970930004167</v>
       </c>
       <c r="Q96" t="n">
         <v>4.876331350030285</v>
@@ -5584,25 +5584,25 @@
         <v>415.4563258997372</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.5340416222389273</v>
+        <v>-0.5340401005439102</v>
       </c>
       <c r="K97" t="n">
-        <v>8.362613050810356</v>
+        <v>8.362611529115339</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N97" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O97" t="n">
-        <v>-3.931614546401683</v>
+        <v>-3.931614739972389</v>
       </c>
       <c r="P97" t="n">
-        <v>3.931614546401683</v>
+        <v>3.931614739972389</v>
       </c>
       <c r="Q97" t="n">
         <v>7.592075960783585</v>
@@ -5637,25 +5637,25 @@
         <v>342.7348064455174</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1649673634105877</v>
+        <v>0.1649669686674873</v>
       </c>
       <c r="K98" t="n">
-        <v>10.541155085569</v>
+        <v>10.5411554803121</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N98" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O98" t="n">
-        <v>-1.753072511643035</v>
+        <v>-1.753070788775624</v>
       </c>
       <c r="P98" t="n">
-        <v>1.753072511643035</v>
+        <v>1.753070788775624</v>
       </c>
       <c r="Q98" t="n">
         <v>5.647651931211578</v>
@@ -5690,25 +5690,25 @@
         <v>201.2391070390448</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02627844508670307</v>
+        <v>0.0262787648125844</v>
       </c>
       <c r="K99" t="n">
-        <v>12.47576237123982</v>
+        <v>12.47576205151394</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N99" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1815347740277851</v>
+        <v>0.1815357824262147</v>
       </c>
       <c r="P99" t="n">
-        <v>0.1815347740277851</v>
+        <v>0.1815357824262147</v>
       </c>
       <c r="Q99" t="n">
         <v>59.7064893690173</v>
@@ -5743,25 +5743,25 @@
         <v>347.6332381348289</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1303850677804181</v>
+        <v>0.1303857510879567</v>
       </c>
       <c r="K100" t="n">
-        <v>10.04512513630121</v>
+        <v>10.04512445299367</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N100" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O100" t="n">
-        <v>-2.249102460910832</v>
+        <v>-2.249101816094059</v>
       </c>
       <c r="P100" t="n">
-        <v>2.249102460910832</v>
+        <v>2.249101816094059</v>
       </c>
       <c r="Q100" t="n">
         <v>8.676184221557074</v>
@@ -5796,25 +5796,25 @@
         <v>415.9472303543046</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.533734938098581</v>
+        <v>-0.5337334220761178</v>
       </c>
       <c r="K101" t="n">
-        <v>8.239857387078173</v>
+        <v>8.23985587105571</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N101" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O101" t="n">
-        <v>-4.054370210133866</v>
+        <v>-4.054370398032018</v>
       </c>
       <c r="P101" t="n">
-        <v>4.054370210133866</v>
+        <v>4.054370398032018</v>
       </c>
       <c r="Q101" t="n">
         <v>6.357573722416353</v>
@@ -5849,25 +5849,25 @@
         <v>342.8997567210633</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1651521954063675</v>
+        <v>0.165151800104347</v>
       </c>
       <c r="K102" t="n">
-        <v>10.58178658010383</v>
+        <v>10.58178697540585</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N102" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O102" t="n">
-        <v>-1.712441017108205</v>
+        <v>-1.712439293681873</v>
       </c>
       <c r="P102" t="n">
-        <v>1.712441017108205</v>
+        <v>1.712439293681873</v>
       </c>
       <c r="Q102" t="n">
         <v>5.468410159124653</v>
@@ -5902,25 +5902,25 @@
         <v>202.000092670314</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02712265893578802</v>
+        <v>0.02712297695217813</v>
       </c>
       <c r="K103" t="n">
-        <v>15.80144876963564</v>
+        <v>15.80144845161925</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N103" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O103" t="n">
-        <v>3.507221172423602</v>
+        <v>3.507222182531523</v>
       </c>
       <c r="P103" t="n">
-        <v>3.507221172423602</v>
+        <v>3.507222182531523</v>
       </c>
       <c r="Q103" t="n">
         <v>59.62715052855335</v>
@@ -5955,25 +5955,25 @@
         <v>347.678515253514</v>
       </c>
       <c r="J104" t="n">
-        <v>0.130300433429607</v>
+        <v>0.1303011178754687</v>
       </c>
       <c r="K104" t="n">
-        <v>10.12684242371324</v>
+        <v>10.12684173926738</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.007359601331721075</v>
+        <v>-0.007359365511473204</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.05938080561582915</v>
+        <v>-0.05938061845973301</v>
       </c>
       <c r="N104" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="O104" t="n">
-        <v>-2.167385173498801</v>
+        <v>-2.167384529820351</v>
       </c>
       <c r="P104" t="n">
-        <v>2.167385173498801</v>
+        <v>2.167384529820351</v>
       </c>
       <c r="Q104" t="n">
         <v>8.916476610301034</v>
@@ -6008,25 +6008,25 @@
         <v>415.6881128621935</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.4555183394431097</v>
+        <v>-0.45551833737359</v>
       </c>
       <c r="K105" t="n">
-        <v>12.75347752311658</v>
+        <v>12.75347752104706</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.009828890673531106</v>
+        <v>-0.009828890355805593</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.05093415708189181</v>
+        <v>-0.05093415682757337</v>
       </c>
       <c r="N105" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="O105" t="n">
-        <v>-4.253622391859583</v>
+        <v>-4.253622392115737</v>
       </c>
       <c r="P105" t="n">
-        <v>4.253622391859583</v>
+        <v>4.253622392115737</v>
       </c>
       <c r="Q105" t="n">
         <v>7.474390919439775</v>
@@ -6061,25 +6061,25 @@
         <v>415.687127329443</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.455456949998716</v>
+        <v>-0.4554569479299282</v>
       </c>
       <c r="K106" t="n">
-        <v>12.71259980714156</v>
+        <v>12.71259980507277</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.009828890673531106</v>
+        <v>-0.009828890355805593</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.05093415708189181</v>
+        <v>-0.05093415682757337</v>
       </c>
       <c r="N106" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="O106" t="n">
-        <v>-4.294500107834601</v>
+        <v>-4.294500108090023</v>
       </c>
       <c r="P106" t="n">
-        <v>4.294500107834601</v>
+        <v>4.294500108090023</v>
       </c>
       <c r="Q106" t="n">
         <v>7.370570864340482</v>
@@ -6114,25 +6114,25 @@
         <v>282.6928913061575</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.02029614301962113</v>
+        <v>-0.02029388341146898</v>
       </c>
       <c r="K107" t="n">
-        <v>34.03254104097881</v>
+        <v>34.03253878137065</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="N107" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="O107" t="n">
-        <v>1.399769319433197</v>
+        <v>1.399771665443062</v>
       </c>
       <c r="P107" t="n">
-        <v>1.399769319433197</v>
+        <v>1.399771665443062</v>
       </c>
       <c r="Q107" t="n">
         <v>4.267360978468028</v>
@@ -6167,25 +6167,25 @@
         <v>282.766652699789</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.02031743409150977</v>
+        <v>-0.02031517307352715</v>
       </c>
       <c r="K108" t="n">
-        <v>34.39990927082621</v>
+        <v>34.39990700980822</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="N108" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="O108" t="n">
-        <v>1.767137549280598</v>
+        <v>1.767139893880632</v>
       </c>
       <c r="P108" t="n">
-        <v>1.767137549280598</v>
+        <v>1.767139893880632</v>
       </c>
       <c r="Q108" t="n">
         <v>4.358778486296902</v>
@@ -6220,25 +6220,25 @@
         <v>282.696713635197</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.02031178854467441</v>
+        <v>-0.02030952829985466</v>
       </c>
       <c r="K109" t="n">
-        <v>32.64480158446305</v>
+        <v>32.64479932421823</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.01700462130075263</v>
+        <v>-0.01700381395843612</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.02774809052601302</v>
+        <v>-0.02774744443859951</v>
       </c>
       <c r="N109" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="O109" t="n">
-        <v>0.01202986291743713</v>
+        <v>0.01203220829063412</v>
       </c>
       <c r="P109" t="n">
-        <v>0.01202986291743713</v>
+        <v>0.01203220829063412</v>
       </c>
       <c r="Q109" t="n">
         <v>4.277545822691081</v>
@@ -6273,25 +6273,25 @@
         <v>283.209889335871</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.02401402283657461</v>
+        <v>-0.02402041815492595</v>
       </c>
       <c r="K110" t="n">
-        <v>38.36278953304065</v>
+        <v>38.36279592835901</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N110" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O110" t="n">
-        <v>0.6698763032738739</v>
+        <v>0.6698696104746276</v>
       </c>
       <c r="P110" t="n">
-        <v>0.6698763032738739</v>
+        <v>0.6698696104746276</v>
       </c>
       <c r="Q110" t="n">
         <v>4.78370227269083</v>
@@ -6326,25 +6326,25 @@
         <v>283.2367217459971</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.02407093492867318</v>
+        <v>-0.02407733659597255</v>
       </c>
       <c r="K111" t="n">
-        <v>36.48529542472459</v>
+        <v>36.48530182639189</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.01865959589920772</v>
+        <v>-0.01866188822076622</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.02945332112254317</v>
+        <v>-0.02945516246923803</v>
       </c>
       <c r="N111" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="O111" t="n">
-        <v>-1.20761780504219</v>
+        <v>-1.207624491492489</v>
       </c>
       <c r="P111" t="n">
-        <v>1.20761780504219</v>
+        <v>1.207624491492489</v>
       </c>
       <c r="Q111" t="n">
         <v>4.833396206945807</v>
@@ -6379,25 +6379,25 @@
         <v>531.3385378867366</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06780626945157309</v>
+        <v>0.06780626870558848</v>
       </c>
       <c r="K112" t="n">
-        <v>39.35260189381373</v>
+        <v>39.35260189455971</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N112" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O112" t="n">
-        <v>-3.08636445259836</v>
+        <v>-3.08636445292538</v>
       </c>
       <c r="P112" t="n">
-        <v>3.08636445259836</v>
+        <v>3.08636445292538</v>
       </c>
       <c r="Q112" t="n">
         <v>95.24287045001471</v>
@@ -6432,25 +6432,25 @@
         <v>530.1160613591845</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06748618537504569</v>
+        <v>0.06748618462734868</v>
       </c>
       <c r="K113" t="n">
-        <v>47.35292197789025</v>
+        <v>47.35292197863795</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.01676473170479799</v>
+        <v>-0.01676473189045352</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0004251741114202026</v>
+        <v>0.0004251739552818418</v>
       </c>
       <c r="N113" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="O113" t="n">
-        <v>4.913955631478167</v>
+        <v>4.913955631152859</v>
       </c>
       <c r="P113" t="n">
-        <v>4.913955631478167</v>
+        <v>4.913955631152859</v>
       </c>
       <c r="Q113" t="n">
         <v>93.98544312265288</v>
@@ -6485,25 +6485,25 @@
         <v>515.4495155743402</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04350156638732017</v>
+        <v>0.04349119536112767</v>
       </c>
       <c r="K114" t="n">
-        <v>47.25445761728614</v>
+        <v>47.25446798831234</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M114" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N114" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.4846080601445095</v>
+        <v>-0.484588666719965</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4846080601445095</v>
+        <v>0.484588666719965</v>
       </c>
       <c r="Q114" t="n">
         <v>3.912069315818125</v>
@@ -6538,25 +6538,25 @@
         <v>490.9155705993065</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0463164514337322</v>
+        <v>0.0463073679913748</v>
       </c>
       <c r="K115" t="n">
-        <v>47.29245905877035</v>
+        <v>47.29246814221271</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N115" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.4466066186603044</v>
+        <v>-0.446588512819595</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4466066186603044</v>
+        <v>0.446588512819595</v>
       </c>
       <c r="Q115" t="n">
         <v>64.81567390332062</v>
@@ -6591,25 +6591,25 @@
         <v>520.3740024903194</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0216929516048765</v>
+        <v>0.02170166170564869</v>
       </c>
       <c r="K116" t="n">
-        <v>51.72524582390532</v>
+        <v>51.72523711380455</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N116" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O116" t="n">
-        <v>3.986180146474666</v>
+        <v>3.986180458772246</v>
       </c>
       <c r="P116" t="n">
-        <v>3.986180146474666</v>
+        <v>3.986180458772246</v>
       </c>
       <c r="Q116" t="n">
         <v>78.51786806265048</v>
@@ -6644,25 +6644,25 @@
         <v>515.6312144736766</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04344210809600924</v>
+        <v>0.04343172794056471</v>
       </c>
       <c r="K117" t="n">
-        <v>50.41778238169989</v>
+        <v>50.41779276185534</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N117" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O117" t="n">
-        <v>2.678716704269242</v>
+        <v>2.678736106823038</v>
       </c>
       <c r="P117" t="n">
-        <v>2.678716704269242</v>
+        <v>2.678736106823038</v>
       </c>
       <c r="Q117" t="n">
         <v>3.481855342483091</v>
@@ -6697,25 +6697,25 @@
         <v>490.1568266160824</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04619217044050572</v>
+        <v>0.04618311297179645</v>
       </c>
       <c r="K118" t="n">
-        <v>47.0476853805799</v>
+        <v>47.04769443804861</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N118" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.6913802968507525</v>
+        <v>-0.6913622169836913</v>
       </c>
       <c r="P118" t="n">
-        <v>0.6913802968507525</v>
+        <v>0.6913622169836913</v>
       </c>
       <c r="Q118" t="n">
         <v>64.42158765769312</v>
@@ -6750,25 +6750,25 @@
         <v>490.8012233079557</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04633134389067095</v>
+        <v>0.04632226803582284</v>
       </c>
       <c r="K119" t="n">
-        <v>46.9250972275379</v>
+        <v>46.92510630339275</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002185766350433432</v>
+        <v>-0.002184185632031982</v>
       </c>
       <c r="M119" t="n">
-        <v>-0.01007005633392401</v>
+        <v>-0.01006878804965947</v>
       </c>
       <c r="N119" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.8139684498927551</v>
+        <v>-0.813950351639555</v>
       </c>
       <c r="P119" t="n">
-        <v>0.8139684498927551</v>
+        <v>0.813950351639555</v>
       </c>
       <c r="Q119" t="n">
         <v>65.13294196117414</v>
@@ -6803,25 +6803,25 @@
         <v>516.0442666325026</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01060317555537438</v>
+        <v>0.0106031902567949</v>
       </c>
       <c r="K120" t="n">
-        <v>52.57307029383242</v>
+        <v>52.573070279131</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M120" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N120" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.6990791671425143</v>
+        <v>-0.6990791946288155</v>
       </c>
       <c r="P120" t="n">
-        <v>0.6990791671425143</v>
+        <v>0.6990791946288155</v>
       </c>
       <c r="Q120" t="n">
         <v>5.572862612296609</v>
@@ -6856,28 +6856,28 @@
         <v>489.0544424516141</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.0136303709508141</v>
+        <v>-0.01363035817293934</v>
       </c>
       <c r="K121" t="n">
-        <v>52.43403853421611</v>
+        <v>52.43403852143824</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M121" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N121" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.8381109267588229</v>
+        <v>-0.8381109523215784</v>
       </c>
       <c r="P121" t="n">
-        <v>0.8381109267588229</v>
+        <v>0.8381109523215784</v>
       </c>
       <c r="Q121" t="n">
-        <v>63.61945152367091</v>
+        <v>63.6194515236709</v>
       </c>
     </row>
     <row r="122">
@@ -6909,25 +6909,25 @@
         <v>488.3745111650526</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.01364833665947174</v>
+        <v>-0.01364832391568171</v>
       </c>
       <c r="K122" t="n">
-        <v>52.67895445910847</v>
+        <v>52.67895444636468</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M122" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N122" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.5931950018664622</v>
+        <v>-0.593195027395133</v>
       </c>
       <c r="P122" t="n">
-        <v>0.5931950018664622</v>
+        <v>0.593195027395133</v>
       </c>
       <c r="Q122" t="n">
         <v>63.36259536269998</v>
@@ -6962,25 +6962,25 @@
         <v>515.899439349142</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01065601519611903</v>
+        <v>0.01065602989113756</v>
       </c>
       <c r="K123" t="n">
-        <v>48.40975214806918</v>
+        <v>48.40975213337416</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M123" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N123" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O123" t="n">
-        <v>-4.862397312905756</v>
+        <v>-4.862397340385655</v>
       </c>
       <c r="P123" t="n">
-        <v>4.862397312905756</v>
+        <v>4.862397340385655</v>
       </c>
       <c r="Q123" t="n">
         <v>5.509281462346614</v>
@@ -7015,25 +7015,25 @@
         <v>489.2563457823804</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.01362904311896784</v>
+        <v>-0.01362903033110996</v>
       </c>
       <c r="K124" t="n">
-        <v>54.22995557373117</v>
+        <v>54.22995556094331</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.01473230114615368</v>
+        <v>-0.01473230338362788</v>
       </c>
       <c r="M124" t="n">
-        <v>0.01242657371393309</v>
+        <v>0.01242657191687547</v>
       </c>
       <c r="N124" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="O124" t="n">
-        <v>0.9578061127562307</v>
+        <v>0.9578060871834921</v>
       </c>
       <c r="P124" t="n">
-        <v>0.9578061127562307</v>
+        <v>0.9578060871834921</v>
       </c>
       <c r="Q124" t="n">
         <v>63.70732081478868</v>
